--- a/仕様書/カラマリテープ_仕様書_BGMリソース.xlsx
+++ b/仕様書/カラマリテープ_仕様書_BGMリソース.xlsx
@@ -5,19 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ゲーム制作サークル\2021年度\日本ゲーム大賞アマチュア部門\JGA_2021_バージョン管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ゲーム制作サークル\2021年度\日本ゲーム大賞アマチュア部門\JGA_2021_バージョン管理\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE566A3-0E82-4EB7-9EEB-E6AC1C603744}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CFD188-EAA6-4464-AEDC-2ADA4E39DE3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
   </bookViews>
   <sheets>
     <sheet name="トップページ" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet1 (3)" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet1 (4)" sheetId="8" r:id="rId4"/>
-    <sheet name="Sheet1 (5)" sheetId="9" r:id="rId5"/>
+    <sheet name="BGMリソース" sheetId="6" r:id="rId2"/>
+    <sheet name="BGM詳細" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,14 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
-  <si>
-    <t>仕様書：</t>
-    <rPh sb="0" eb="3">
-      <t>シヨウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
   <si>
     <t>仕様書：更新履歴</t>
     <rPh sb="0" eb="3">
@@ -79,9 +70,322 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カラマリテープ_仕様書_</t>
+    <t>松田優志</t>
+    <rPh sb="0" eb="2">
+      <t>マツダ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松田優志</t>
+    <rPh sb="0" eb="4">
+      <t>マツダユウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGMリソース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGMリソースのページ作成</t>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラマリテープ_仕様書_BGMリソース</t>
     <rPh sb="8" eb="11">
       <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様書：トップページ</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様書：BGMリソース</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGMリソース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGMリスト</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ループ(〇/)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡張子</t>
+    <rPh sb="0" eb="3">
+      <t>カクチョウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームタイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面で再生される</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bgm_title.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクト画面で再生される</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bgm.stageselect.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ1～3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアルとステージ1～3で再生される</t>
+    <rPh sb="16" eb="18">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bgm_stagebgm_01_03.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ4～7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ8～10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ4～7で再生される</t>
+    <rPh sb="8" eb="10">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ8～10で再生される</t>
+    <rPh sb="9" eb="11">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bgm_stagebgm_04_07.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bgm_stagebgm_08_10.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージリソース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームタイトル</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>音楽のイメージ</t>
+    <rPh sb="0" eb="2">
+      <t>オンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考欄</t>
+    <rPh sb="0" eb="3">
+      <t>ビコウラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">再生時間２～３分くらいが理想。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">タイトルで使われるBGM。
+</t>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクト</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ステージセレクト画面で使われるBGM</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bgm_stage_select.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">再生時間は1～3分くらいが理想。
+</t>
+    <rPh sb="0" eb="4">
+      <t>サイセイジカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>プン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ１～3</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">再生時間は1～3分くらいが理想。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ4～7</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>チュートリアルとステージ4～7で再生される</t>
+    <rPh sb="16" eb="18">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ8～10</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>チュートリアルとステージ8～10で再生される</t>
+    <rPh sb="17" eb="19">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM詳細</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ゲームタイトル」～「ステージ8～10」の項目を作成</t>
+    <rPh sb="21" eb="23">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM詳細ページ作成</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様書：BGM詳細</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -90,7 +394,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +455,41 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,8 +526,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -441,13 +784,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -487,9 +886,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -511,15 +907,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,8 +922,120 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -868,409 +1367,415 @@
     <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:73" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:73" s="16" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:73" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="17" t="s">
+    <row r="1" spans="1:73" s="15" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:73" s="15" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:73" s="15" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:73" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:73" s="19" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="18"/>
+    </row>
+    <row r="6" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
+    </row>
+    <row r="7" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
+      <c r="I7" s="21" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:73" s="20" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="19"/>
-    </row>
-    <row r="6" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="I7" s="25" t="s">
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+      <c r="AX7" s="21"/>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="21"/>
+      <c r="BA7" s="21"/>
+      <c r="BB7" s="21"/>
+      <c r="BC7" s="21"/>
+      <c r="BD7" s="21"/>
+      <c r="BE7" s="21"/>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="21"/>
+      <c r="BH7" s="21"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="21"/>
+      <c r="BK7" s="21"/>
+      <c r="BL7" s="21"/>
+      <c r="BM7" s="21"/>
+      <c r="BN7" s="21"/>
+      <c r="BO7" s="21"/>
+      <c r="BP7" s="21"/>
+      <c r="BQ7" s="21"/>
+      <c r="BR7" s="21"/>
+      <c r="BS7" s="21"/>
+      <c r="BT7" s="21"/>
+      <c r="BU7" s="21"/>
+    </row>
+    <row r="8" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="21"/>
+      <c r="AR8" s="21"/>
+      <c r="AS8" s="21"/>
+      <c r="AT8" s="21"/>
+      <c r="AU8" s="21"/>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="21"/>
+      <c r="AX8" s="21"/>
+      <c r="AY8" s="21"/>
+      <c r="AZ8" s="21"/>
+      <c r="BA8" s="21"/>
+      <c r="BB8" s="21"/>
+      <c r="BC8" s="21"/>
+      <c r="BD8" s="21"/>
+      <c r="BE8" s="21"/>
+      <c r="BF8" s="21"/>
+      <c r="BG8" s="21"/>
+      <c r="BH8" s="21"/>
+      <c r="BI8" s="21"/>
+      <c r="BJ8" s="21"/>
+      <c r="BK8" s="21"/>
+      <c r="BL8" s="21"/>
+      <c r="BM8" s="21"/>
+      <c r="BN8" s="21"/>
+      <c r="BO8" s="21"/>
+      <c r="BP8" s="21"/>
+      <c r="BQ8" s="21"/>
+      <c r="BR8" s="21"/>
+      <c r="BS8" s="21"/>
+      <c r="BT8" s="21"/>
+      <c r="BU8" s="21"/>
+    </row>
+    <row r="9" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21"/>
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21"/>
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21"/>
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="21"/>
+      <c r="BF9" s="21"/>
+      <c r="BG9" s="21"/>
+      <c r="BH9" s="21"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="21"/>
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="21"/>
+      <c r="BM9" s="21"/>
+      <c r="BN9" s="21"/>
+      <c r="BO9" s="21"/>
+      <c r="BP9" s="21"/>
+      <c r="BQ9" s="21"/>
+      <c r="BR9" s="21"/>
+      <c r="BS9" s="21"/>
+      <c r="BT9" s="21"/>
+      <c r="BU9" s="21"/>
+    </row>
+    <row r="10" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="I10" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="25"/>
-      <c r="AL7" s="25"/>
-      <c r="AM7" s="25"/>
-      <c r="AN7" s="25"/>
-      <c r="AO7" s="25"/>
-      <c r="AP7" s="25"/>
-      <c r="AQ7" s="25"/>
-      <c r="AR7" s="25"/>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="25"/>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="25"/>
-      <c r="AW7" s="25"/>
-      <c r="AX7" s="25"/>
-      <c r="AY7" s="25"/>
-      <c r="AZ7" s="25"/>
-      <c r="BA7" s="25"/>
-      <c r="BB7" s="25"/>
-      <c r="BC7" s="25"/>
-      <c r="BD7" s="25"/>
-      <c r="BE7" s="25"/>
-      <c r="BF7" s="25"/>
-      <c r="BG7" s="25"/>
-      <c r="BH7" s="25"/>
-      <c r="BI7" s="25"/>
-      <c r="BJ7" s="25"/>
-      <c r="BK7" s="25"/>
-      <c r="BL7" s="25"/>
-      <c r="BM7" s="25"/>
-      <c r="BN7" s="25"/>
-      <c r="BO7" s="25"/>
-      <c r="BP7" s="25"/>
-      <c r="BQ7" s="25"/>
-      <c r="BR7" s="25"/>
-      <c r="BS7" s="25"/>
-      <c r="BT7" s="25"/>
-      <c r="BU7" s="25"/>
-    </row>
-    <row r="8" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="25"/>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="25"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="25"/>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="25"/>
-      <c r="AN8" s="25"/>
-      <c r="AO8" s="25"/>
-      <c r="AP8" s="25"/>
-      <c r="AQ8" s="25"/>
-      <c r="AR8" s="25"/>
-      <c r="AS8" s="25"/>
-      <c r="AT8" s="25"/>
-      <c r="AU8" s="25"/>
-      <c r="AV8" s="25"/>
-      <c r="AW8" s="25"/>
-      <c r="AX8" s="25"/>
-      <c r="AY8" s="25"/>
-      <c r="AZ8" s="25"/>
-      <c r="BA8" s="25"/>
-      <c r="BB8" s="25"/>
-      <c r="BC8" s="25"/>
-      <c r="BD8" s="25"/>
-      <c r="BE8" s="25"/>
-      <c r="BF8" s="25"/>
-      <c r="BG8" s="25"/>
-      <c r="BH8" s="25"/>
-      <c r="BI8" s="25"/>
-      <c r="BJ8" s="25"/>
-      <c r="BK8" s="25"/>
-      <c r="BL8" s="25"/>
-      <c r="BM8" s="25"/>
-      <c r="BN8" s="25"/>
-      <c r="BO8" s="25"/>
-      <c r="BP8" s="25"/>
-      <c r="BQ8" s="25"/>
-      <c r="BR8" s="25"/>
-      <c r="BS8" s="25"/>
-      <c r="BT8" s="25"/>
-      <c r="BU8" s="25"/>
-    </row>
-    <row r="9" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25"/>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25"/>
-      <c r="BC9" s="25"/>
-      <c r="BD9" s="25"/>
-      <c r="BE9" s="25"/>
-      <c r="BF9" s="25"/>
-      <c r="BG9" s="25"/>
-      <c r="BH9" s="25"/>
-      <c r="BI9" s="25"/>
-      <c r="BJ9" s="25"/>
-      <c r="BK9" s="25"/>
-      <c r="BL9" s="25"/>
-      <c r="BM9" s="25"/>
-      <c r="BN9" s="25"/>
-      <c r="BO9" s="25"/>
-      <c r="BP9" s="25"/>
-      <c r="BQ9" s="25"/>
-      <c r="BR9" s="25"/>
-      <c r="BS9" s="25"/>
-      <c r="BT9" s="25"/>
-      <c r="BU9" s="25"/>
-    </row>
-    <row r="10" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="I10" s="26" t="s">
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="27" t="s">
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="28" t="s">
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
+      <c r="AH10" s="24"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="24"/>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="24"/>
+      <c r="AO10" s="24"/>
+      <c r="AP10" s="24"/>
+      <c r="AQ10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="28"/>
-      <c r="AK10" s="28"/>
-      <c r="AL10" s="28"/>
-      <c r="AM10" s="28"/>
-      <c r="AN10" s="28"/>
-      <c r="AO10" s="28"/>
-      <c r="AP10" s="28"/>
-      <c r="AQ10" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR10" s="24"/>
-      <c r="AS10" s="24"/>
-      <c r="AT10" s="24"/>
-      <c r="AU10" s="24"/>
-      <c r="AV10" s="24"/>
-      <c r="AW10" s="24"/>
-      <c r="AX10" s="24"/>
-      <c r="AY10" s="24"/>
-      <c r="AZ10" s="24"/>
-      <c r="BA10" s="24"/>
-      <c r="BB10" s="24"/>
-      <c r="BC10" s="24"/>
-      <c r="BD10" s="24"/>
-      <c r="BE10" s="24"/>
-      <c r="BF10" s="24"/>
-      <c r="BG10" s="24"/>
-      <c r="BH10" s="24"/>
-      <c r="BI10" s="24"/>
-      <c r="BJ10" s="24"/>
-      <c r="BK10" s="24"/>
-      <c r="BL10" s="24"/>
-      <c r="BM10" s="24"/>
-      <c r="BN10" s="24"/>
-      <c r="BO10" s="24"/>
-      <c r="BP10" s="24"/>
-      <c r="BQ10" s="24"/>
-      <c r="BR10" s="24"/>
-      <c r="BS10" s="24"/>
-      <c r="BT10" s="24"/>
-      <c r="BU10" s="24"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="20"/>
+      <c r="AU10" s="20"/>
+      <c r="AV10" s="20"/>
+      <c r="AW10" s="20"/>
+      <c r="AX10" s="20"/>
+      <c r="AY10" s="20"/>
+      <c r="AZ10" s="20"/>
+      <c r="BA10" s="20"/>
+      <c r="BB10" s="20"/>
+      <c r="BC10" s="20"/>
+      <c r="BD10" s="20"/>
+      <c r="BE10" s="20"/>
+      <c r="BF10" s="20"/>
+      <c r="BG10" s="20"/>
+      <c r="BH10" s="20"/>
+      <c r="BI10" s="20"/>
+      <c r="BJ10" s="20"/>
+      <c r="BK10" s="20"/>
+      <c r="BL10" s="20"/>
+      <c r="BM10" s="20"/>
+      <c r="BN10" s="20"/>
+      <c r="BO10" s="20"/>
+      <c r="BP10" s="20"/>
+      <c r="BQ10" s="20"/>
+      <c r="BR10" s="20"/>
+      <c r="BS10" s="20"/>
+      <c r="BT10" s="20"/>
+      <c r="BU10" s="20"/>
     </row>
     <row r="11" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="28"/>
-      <c r="AL11" s="28"/>
-      <c r="AM11" s="28"/>
-      <c r="AN11" s="28"/>
-      <c r="AO11" s="28"/>
-      <c r="AP11" s="28"/>
-      <c r="AQ11" s="24"/>
-      <c r="AR11" s="24"/>
-      <c r="AS11" s="24"/>
-      <c r="AT11" s="24"/>
-      <c r="AU11" s="24"/>
-      <c r="AV11" s="24"/>
-      <c r="AW11" s="24"/>
-      <c r="AX11" s="24"/>
-      <c r="AY11" s="24"/>
-      <c r="AZ11" s="24"/>
-      <c r="BA11" s="24"/>
-      <c r="BB11" s="24"/>
-      <c r="BC11" s="24"/>
-      <c r="BD11" s="24"/>
-      <c r="BE11" s="24"/>
-      <c r="BF11" s="24"/>
-      <c r="BG11" s="24"/>
-      <c r="BH11" s="24"/>
-      <c r="BI11" s="24"/>
-      <c r="BJ11" s="24"/>
-      <c r="BK11" s="24"/>
-      <c r="BL11" s="24"/>
-      <c r="BM11" s="24"/>
-      <c r="BN11" s="24"/>
-      <c r="BO11" s="24"/>
-      <c r="BP11" s="24"/>
-      <c r="BQ11" s="24"/>
-      <c r="BR11" s="24"/>
-      <c r="BS11" s="24"/>
-      <c r="BT11" s="24"/>
-      <c r="BU11" s="24"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="24"/>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="24"/>
+      <c r="AQ11" s="20"/>
+      <c r="AR11" s="20"/>
+      <c r="AS11" s="20"/>
+      <c r="AT11" s="20"/>
+      <c r="AU11" s="20"/>
+      <c r="AV11" s="20"/>
+      <c r="AW11" s="20"/>
+      <c r="AX11" s="20"/>
+      <c r="AY11" s="20"/>
+      <c r="AZ11" s="20"/>
+      <c r="BA11" s="20"/>
+      <c r="BB11" s="20"/>
+      <c r="BC11" s="20"/>
+      <c r="BD11" s="20"/>
+      <c r="BE11" s="20"/>
+      <c r="BF11" s="20"/>
+      <c r="BG11" s="20"/>
+      <c r="BH11" s="20"/>
+      <c r="BI11" s="20"/>
+      <c r="BJ11" s="20"/>
+      <c r="BK11" s="20"/>
+      <c r="BL11" s="20"/>
+      <c r="BM11" s="20"/>
+      <c r="BN11" s="20"/>
+      <c r="BO11" s="20"/>
+      <c r="BP11" s="20"/>
+      <c r="BQ11" s="20"/>
+      <c r="BR11" s="20"/>
+      <c r="BS11" s="20"/>
+      <c r="BT11" s="20"/>
+      <c r="BU11" s="20"/>
     </row>
     <row r="12" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="7"/>
@@ -1280,71 +1785,71 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="28"/>
-      <c r="AM12" s="28"/>
-      <c r="AN12" s="28"/>
-      <c r="AO12" s="28"/>
-      <c r="AP12" s="28"/>
-      <c r="AQ12" s="24"/>
-      <c r="AR12" s="24"/>
-      <c r="AS12" s="24"/>
-      <c r="AT12" s="24"/>
-      <c r="AU12" s="24"/>
-      <c r="AV12" s="24"/>
-      <c r="AW12" s="24"/>
-      <c r="AX12" s="24"/>
-      <c r="AY12" s="24"/>
-      <c r="AZ12" s="24"/>
-      <c r="BA12" s="24"/>
-      <c r="BB12" s="24"/>
-      <c r="BC12" s="24"/>
-      <c r="BD12" s="24"/>
-      <c r="BE12" s="24"/>
-      <c r="BF12" s="24"/>
-      <c r="BG12" s="24"/>
-      <c r="BH12" s="24"/>
-      <c r="BI12" s="24"/>
-      <c r="BJ12" s="24"/>
-      <c r="BK12" s="24"/>
-      <c r="BL12" s="24"/>
-      <c r="BM12" s="24"/>
-      <c r="BN12" s="24"/>
-      <c r="BO12" s="24"/>
-      <c r="BP12" s="24"/>
-      <c r="BQ12" s="24"/>
-      <c r="BR12" s="24"/>
-      <c r="BS12" s="24"/>
-      <c r="BT12" s="24"/>
-      <c r="BU12" s="24"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="24"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="24"/>
+      <c r="AJ12" s="24"/>
+      <c r="AK12" s="24"/>
+      <c r="AL12" s="24"/>
+      <c r="AM12" s="24"/>
+      <c r="AN12" s="24"/>
+      <c r="AO12" s="24"/>
+      <c r="AP12" s="24"/>
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="20"/>
+      <c r="AS12" s="20"/>
+      <c r="AT12" s="20"/>
+      <c r="AU12" s="20"/>
+      <c r="AV12" s="20"/>
+      <c r="AW12" s="20"/>
+      <c r="AX12" s="20"/>
+      <c r="AY12" s="20"/>
+      <c r="AZ12" s="20"/>
+      <c r="BA12" s="20"/>
+      <c r="BB12" s="20"/>
+      <c r="BC12" s="20"/>
+      <c r="BD12" s="20"/>
+      <c r="BE12" s="20"/>
+      <c r="BF12" s="20"/>
+      <c r="BG12" s="20"/>
+      <c r="BH12" s="20"/>
+      <c r="BI12" s="20"/>
+      <c r="BJ12" s="20"/>
+      <c r="BK12" s="20"/>
+      <c r="BL12" s="20"/>
+      <c r="BM12" s="20"/>
+      <c r="BN12" s="20"/>
+      <c r="BO12" s="20"/>
+      <c r="BP12" s="20"/>
+      <c r="BQ12" s="20"/>
+      <c r="BR12" s="20"/>
+      <c r="BS12" s="20"/>
+      <c r="BT12" s="20"/>
+      <c r="BU12" s="20"/>
     </row>
     <row r="13" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="10"/>
@@ -1354,18 +1859,22 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="6"/>
+      <c r="I13" s="25">
+        <v>44277</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
@@ -1373,7 +1882,9 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
+      <c r="AB13" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AE13" s="6"/>
@@ -1388,7 +1899,9 @@
       <c r="AN13" s="6"/>
       <c r="AO13" s="6"/>
       <c r="AP13" s="6"/>
-      <c r="AQ13" s="6"/>
+      <c r="AQ13" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="AR13" s="6"/>
       <c r="AS13" s="6"/>
       <c r="AT13" s="6"/>
@@ -1428,7 +1941,9 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="26">
+        <v>44277</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -1439,7 +1954,9 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="2"/>
+      <c r="T14" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -1447,7 +1964,9 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
+      <c r="AB14" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -1462,7 +1981,9 @@
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
-      <c r="AQ14" s="2"/>
+      <c r="AQ14" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="AR14" s="2"/>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2"/>
@@ -1502,7 +2023,9 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="26">
+        <v>44277</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1513,7 +2036,9 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="2"/>
+      <c r="T15" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
@@ -1521,7 +2046,9 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
+      <c r="AB15" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
@@ -1536,7 +2063,9 @@
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
-      <c r="AQ15" s="2"/>
+      <c r="AQ15" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="AR15" s="2"/>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2"/>
@@ -1576,7 +2105,9 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="26">
+        <v>44277</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1587,7 +2118,9 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="2"/>
+      <c r="T16" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -1595,7 +2128,9 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
+      <c r="AB16" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
@@ -1610,7 +2145,9 @@
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
-      <c r="AQ16" s="2"/>
+      <c r="AQ16" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
       <c r="AT16" s="2"/>
@@ -1650,7 +2187,9 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
-      <c r="I17" s="3"/>
+      <c r="I17" s="26">
+        <v>44277</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1661,7 +2200,9 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="2"/>
+      <c r="T17" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
@@ -1669,7 +2210,9 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
+      <c r="AB17" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
@@ -1684,7 +2227,9 @@
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
-      <c r="AQ17" s="2"/>
+      <c r="AQ17" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="AR17" s="2"/>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2"/>
@@ -3042,6 +3587,11 @@
     <mergeCell ref="AQ26:BU26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A6:G7" location="トップページ!A1" display="トップページ" xr:uid="{0648769E-8D19-499B-8FDA-21B9D16A8572}"/>
+    <hyperlink ref="A8:G9" location="BGMリソース!A1" display="BGMリソース" xr:uid="{69F8BBF0-1A8F-409B-AF9C-0FD87BEC8A7D}"/>
+    <hyperlink ref="A10:G11" location="BGM詳細!A1" display="BGM詳細" xr:uid="{148CFE70-6E67-416D-A16B-73ABF4FF64B1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3049,10 +3599,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EFD6AD-BC50-4081-B4E6-0E5707F89605}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:CD51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="A6" sqref="A6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3060,76 +3610,382 @@
     <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:7" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="20" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:82" s="15" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:82" s="15" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:82" s="15" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:82" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:82" s="19" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="18"/>
+    </row>
+    <row r="6" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
+    </row>
+    <row r="7" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
+      <c r="I7" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="28"/>
+      <c r="AR7" s="28"/>
+      <c r="AS7" s="28"/>
+      <c r="AT7" s="28"/>
+      <c r="AU7" s="28"/>
+      <c r="AV7" s="28"/>
+      <c r="AW7" s="28"/>
+      <c r="AX7" s="28"/>
+      <c r="AY7" s="28"/>
+      <c r="AZ7" s="28"/>
+      <c r="BA7" s="28"/>
+      <c r="BB7" s="28"/>
+      <c r="BC7" s="28"/>
+      <c r="BD7" s="28"/>
+      <c r="BE7" s="28"/>
+      <c r="BF7" s="28"/>
+      <c r="BG7" s="28"/>
+      <c r="BH7" s="28"/>
+      <c r="BI7" s="28"/>
+      <c r="BJ7" s="28"/>
+      <c r="BK7" s="28"/>
+      <c r="BL7" s="28"/>
+      <c r="BM7" s="28"/>
+      <c r="BN7" s="28"/>
+      <c r="BO7" s="28"/>
+      <c r="BP7" s="28"/>
+      <c r="BQ7" s="28"/>
+      <c r="BR7" s="28"/>
+      <c r="BS7" s="28"/>
+      <c r="BT7" s="28"/>
+      <c r="BU7" s="28"/>
+      <c r="BV7" s="28"/>
+      <c r="BW7" s="28"/>
+      <c r="BX7" s="28"/>
+      <c r="BY7" s="28"/>
+      <c r="BZ7" s="28"/>
+      <c r="CA7" s="28"/>
+      <c r="CB7" s="28"/>
+      <c r="CC7" s="28"/>
+      <c r="CD7" s="29"/>
+    </row>
+    <row r="8" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="31"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="31"/>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31"/>
+      <c r="AQ8" s="31"/>
+      <c r="AR8" s="31"/>
+      <c r="AS8" s="31"/>
+      <c r="AT8" s="31"/>
+      <c r="AU8" s="31"/>
+      <c r="AV8" s="31"/>
+      <c r="AW8" s="31"/>
+      <c r="AX8" s="31"/>
+      <c r="AY8" s="31"/>
+      <c r="AZ8" s="31"/>
+      <c r="BA8" s="31"/>
+      <c r="BB8" s="31"/>
+      <c r="BC8" s="31"/>
+      <c r="BD8" s="31"/>
+      <c r="BE8" s="31"/>
+      <c r="BF8" s="31"/>
+      <c r="BG8" s="31"/>
+      <c r="BH8" s="31"/>
+      <c r="BI8" s="31"/>
+      <c r="BJ8" s="31"/>
+      <c r="BK8" s="31"/>
+      <c r="BL8" s="31"/>
+      <c r="BM8" s="31"/>
+      <c r="BN8" s="31"/>
+      <c r="BO8" s="31"/>
+      <c r="BP8" s="31"/>
+      <c r="BQ8" s="31"/>
+      <c r="BR8" s="31"/>
+      <c r="BS8" s="31"/>
+      <c r="BT8" s="31"/>
+      <c r="BU8" s="31"/>
+      <c r="BV8" s="31"/>
+      <c r="BW8" s="31"/>
+      <c r="BX8" s="31"/>
+      <c r="BY8" s="31"/>
+      <c r="BZ8" s="31"/>
+      <c r="CA8" s="31"/>
+      <c r="CB8" s="31"/>
+      <c r="CC8" s="31"/>
+      <c r="CD8" s="32"/>
+    </row>
+    <row r="9" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="34"/>
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="34"/>
+      <c r="AU9" s="34"/>
+      <c r="AV9" s="34"/>
+      <c r="AW9" s="34"/>
+      <c r="AX9" s="34"/>
+      <c r="AY9" s="34"/>
+      <c r="AZ9" s="34"/>
+      <c r="BA9" s="34"/>
+      <c r="BB9" s="34"/>
+      <c r="BC9" s="34"/>
+      <c r="BD9" s="34"/>
+      <c r="BE9" s="34"/>
+      <c r="BF9" s="34"/>
+      <c r="BG9" s="34"/>
+      <c r="BH9" s="34"/>
+      <c r="BI9" s="34"/>
+      <c r="BJ9" s="34"/>
+      <c r="BK9" s="34"/>
+      <c r="BL9" s="34"/>
+      <c r="BM9" s="34"/>
+      <c r="BN9" s="34"/>
+      <c r="BO9" s="34"/>
+      <c r="BP9" s="34"/>
+      <c r="BQ9" s="34"/>
+      <c r="BR9" s="34"/>
+      <c r="BS9" s="34"/>
+      <c r="BT9" s="34"/>
+      <c r="BU9" s="34"/>
+      <c r="BV9" s="34"/>
+      <c r="BW9" s="34"/>
+      <c r="BX9" s="34"/>
+      <c r="BY9" s="34"/>
+      <c r="BZ9" s="34"/>
+      <c r="CA9" s="34"/>
+      <c r="CB9" s="34"/>
+      <c r="CC9" s="34"/>
+      <c r="CD9" s="35"/>
+    </row>
+    <row r="10" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+    </row>
+    <row r="11" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="I11" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="37"/>
+      <c r="AM11" s="37"/>
+      <c r="AN11" s="37"/>
+      <c r="AO11" s="37"/>
+      <c r="AP11" s="37"/>
+      <c r="AQ11" s="37"/>
+      <c r="AR11" s="37"/>
+      <c r="AS11" s="37"/>
+      <c r="AT11" s="37"/>
+      <c r="AU11" s="37"/>
+      <c r="AV11" s="37"/>
+      <c r="AW11" s="37"/>
+      <c r="AX11" s="37"/>
+      <c r="AY11" s="37"/>
+      <c r="AZ11" s="37"/>
+      <c r="BA11" s="37"/>
+      <c r="BB11" s="37"/>
+      <c r="BC11" s="37"/>
+      <c r="BD11" s="37"/>
+      <c r="BE11" s="37"/>
+      <c r="BF11" s="37"/>
+      <c r="BG11" s="37"/>
+      <c r="BH11" s="37"/>
+      <c r="BI11" s="37"/>
+      <c r="BJ11" s="37"/>
+      <c r="BK11" s="37"/>
+      <c r="BL11" s="37"/>
+      <c r="BM11" s="37"/>
+      <c r="BN11" s="37"/>
+      <c r="BO11" s="37"/>
+      <c r="BP11" s="37"/>
+      <c r="BQ11" s="37"/>
+      <c r="BR11" s="37"/>
+      <c r="BS11" s="37"/>
+      <c r="BT11" s="37"/>
+      <c r="BU11" s="37"/>
+      <c r="BV11" s="37"/>
+      <c r="BW11" s="37"/>
+      <c r="BX11" s="37"/>
+      <c r="BY11" s="37"/>
+      <c r="BZ11" s="37"/>
+      <c r="CA11" s="37"/>
+      <c r="CB11" s="37"/>
+      <c r="CC11" s="37"/>
+      <c r="CD11" s="38"/>
+    </row>
+    <row r="12" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -3137,8 +3993,82 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="40"/>
+      <c r="AH12" s="40"/>
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="40"/>
+      <c r="AK12" s="40"/>
+      <c r="AL12" s="40"/>
+      <c r="AM12" s="40"/>
+      <c r="AN12" s="40"/>
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="40"/>
+      <c r="AQ12" s="40"/>
+      <c r="AR12" s="40"/>
+      <c r="AS12" s="40"/>
+      <c r="AT12" s="40"/>
+      <c r="AU12" s="40"/>
+      <c r="AV12" s="40"/>
+      <c r="AW12" s="40"/>
+      <c r="AX12" s="40"/>
+      <c r="AY12" s="40"/>
+      <c r="AZ12" s="40"/>
+      <c r="BA12" s="40"/>
+      <c r="BB12" s="40"/>
+      <c r="BC12" s="40"/>
+      <c r="BD12" s="40"/>
+      <c r="BE12" s="40"/>
+      <c r="BF12" s="40"/>
+      <c r="BG12" s="40"/>
+      <c r="BH12" s="40"/>
+      <c r="BI12" s="40"/>
+      <c r="BJ12" s="40"/>
+      <c r="BK12" s="40"/>
+      <c r="BL12" s="40"/>
+      <c r="BM12" s="40"/>
+      <c r="BN12" s="40"/>
+      <c r="BO12" s="40"/>
+      <c r="BP12" s="40"/>
+      <c r="BQ12" s="40"/>
+      <c r="BR12" s="40"/>
+      <c r="BS12" s="40"/>
+      <c r="BT12" s="40"/>
+      <c r="BU12" s="40"/>
+      <c r="BV12" s="40"/>
+      <c r="BW12" s="40"/>
+      <c r="BX12" s="40"/>
+      <c r="BY12" s="40"/>
+      <c r="BZ12" s="40"/>
+      <c r="CA12" s="40"/>
+      <c r="CB12" s="40"/>
+      <c r="CC12" s="40"/>
+      <c r="CD12" s="41"/>
+    </row>
+    <row r="13" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3146,8 +4076,92 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I13" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="42"/>
+      <c r="AJ13" s="42"/>
+      <c r="AK13" s="42"/>
+      <c r="AL13" s="42"/>
+      <c r="AM13" s="42"/>
+      <c r="AN13" s="42"/>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="42"/>
+      <c r="AR13" s="42"/>
+      <c r="AS13" s="42"/>
+      <c r="AT13" s="42"/>
+      <c r="AU13" s="42"/>
+      <c r="AV13" s="42"/>
+      <c r="AW13" s="42"/>
+      <c r="AX13" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY13" s="42"/>
+      <c r="AZ13" s="42"/>
+      <c r="BA13" s="42"/>
+      <c r="BB13" s="42"/>
+      <c r="BC13" s="42"/>
+      <c r="BD13" s="42"/>
+      <c r="BE13" s="42"/>
+      <c r="BF13" s="42"/>
+      <c r="BG13" s="42"/>
+      <c r="BH13" s="42"/>
+      <c r="BI13" s="42"/>
+      <c r="BJ13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="BK13" s="42"/>
+      <c r="BL13" s="42"/>
+      <c r="BM13" s="42"/>
+      <c r="BN13" s="42"/>
+      <c r="BO13" s="42"/>
+      <c r="BP13" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="BQ13" s="42"/>
+      <c r="BR13" s="42"/>
+      <c r="BS13" s="42"/>
+      <c r="BT13" s="42"/>
+      <c r="BU13" s="42"/>
+      <c r="BV13" s="42"/>
+      <c r="BW13" s="42"/>
+      <c r="BX13" s="42"/>
+      <c r="BY13" s="42"/>
+      <c r="BZ13" s="42"/>
+      <c r="CA13" s="42"/>
+      <c r="CB13" s="42"/>
+      <c r="CC13" s="42"/>
+      <c r="CD13" s="42"/>
+    </row>
+    <row r="14" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -3155,8 +4169,92 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="43"/>
+      <c r="AH14" s="43"/>
+      <c r="AI14" s="43"/>
+      <c r="AJ14" s="43"/>
+      <c r="AK14" s="43"/>
+      <c r="AL14" s="43"/>
+      <c r="AM14" s="43"/>
+      <c r="AN14" s="43"/>
+      <c r="AO14" s="43"/>
+      <c r="AP14" s="43"/>
+      <c r="AQ14" s="43"/>
+      <c r="AR14" s="43"/>
+      <c r="AS14" s="43"/>
+      <c r="AT14" s="43"/>
+      <c r="AU14" s="43"/>
+      <c r="AV14" s="43"/>
+      <c r="AW14" s="43"/>
+      <c r="AX14" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY14" s="43"/>
+      <c r="AZ14" s="43"/>
+      <c r="BA14" s="43"/>
+      <c r="BB14" s="43"/>
+      <c r="BC14" s="43"/>
+      <c r="BD14" s="43"/>
+      <c r="BE14" s="43"/>
+      <c r="BF14" s="43"/>
+      <c r="BG14" s="43"/>
+      <c r="BH14" s="43"/>
+      <c r="BI14" s="43"/>
+      <c r="BJ14" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK14" s="43"/>
+      <c r="BL14" s="43"/>
+      <c r="BM14" s="43"/>
+      <c r="BN14" s="43"/>
+      <c r="BO14" s="43"/>
+      <c r="BP14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BQ14" s="11"/>
+      <c r="BR14" s="11"/>
+      <c r="BS14" s="11"/>
+      <c r="BT14" s="11"/>
+      <c r="BU14" s="11"/>
+      <c r="BV14" s="11"/>
+      <c r="BW14" s="11"/>
+      <c r="BX14" s="11"/>
+      <c r="BY14" s="11"/>
+      <c r="BZ14" s="11"/>
+      <c r="CA14" s="11"/>
+      <c r="CB14" s="11"/>
+      <c r="CC14" s="11"/>
+      <c r="CD14" s="12"/>
+    </row>
+    <row r="15" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3164,8 +4262,92 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I15" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44"/>
+      <c r="AK15" s="44"/>
+      <c r="AL15" s="44"/>
+      <c r="AM15" s="44"/>
+      <c r="AN15" s="44"/>
+      <c r="AO15" s="44"/>
+      <c r="AP15" s="44"/>
+      <c r="AQ15" s="44"/>
+      <c r="AR15" s="44"/>
+      <c r="AS15" s="44"/>
+      <c r="AT15" s="44"/>
+      <c r="AU15" s="44"/>
+      <c r="AV15" s="44"/>
+      <c r="AW15" s="44"/>
+      <c r="AX15" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY15" s="44"/>
+      <c r="AZ15" s="44"/>
+      <c r="BA15" s="44"/>
+      <c r="BB15" s="44"/>
+      <c r="BC15" s="44"/>
+      <c r="BD15" s="44"/>
+      <c r="BE15" s="44"/>
+      <c r="BF15" s="44"/>
+      <c r="BG15" s="44"/>
+      <c r="BH15" s="44"/>
+      <c r="BI15" s="44"/>
+      <c r="BJ15" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK15" s="44"/>
+      <c r="BL15" s="44"/>
+      <c r="BM15" s="44"/>
+      <c r="BN15" s="44"/>
+      <c r="BO15" s="44"/>
+      <c r="BP15" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ15" s="45"/>
+      <c r="BR15" s="45"/>
+      <c r="BS15" s="45"/>
+      <c r="BT15" s="45"/>
+      <c r="BU15" s="45"/>
+      <c r="BV15" s="45"/>
+      <c r="BW15" s="45"/>
+      <c r="BX15" s="45"/>
+      <c r="BY15" s="45"/>
+      <c r="BZ15" s="45"/>
+      <c r="CA15" s="45"/>
+      <c r="CB15" s="45"/>
+      <c r="CC15" s="45"/>
+      <c r="CD15" s="46"/>
+    </row>
+    <row r="16" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3173,8 +4355,92 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I16" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="45"/>
+      <c r="AI16" s="45"/>
+      <c r="AJ16" s="45"/>
+      <c r="AK16" s="45"/>
+      <c r="AL16" s="45"/>
+      <c r="AM16" s="45"/>
+      <c r="AN16" s="45"/>
+      <c r="AO16" s="45"/>
+      <c r="AP16" s="45"/>
+      <c r="AQ16" s="45"/>
+      <c r="AR16" s="45"/>
+      <c r="AS16" s="45"/>
+      <c r="AT16" s="45"/>
+      <c r="AU16" s="45"/>
+      <c r="AV16" s="45"/>
+      <c r="AW16" s="46"/>
+      <c r="AX16" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY16" s="44"/>
+      <c r="AZ16" s="44"/>
+      <c r="BA16" s="44"/>
+      <c r="BB16" s="44"/>
+      <c r="BC16" s="44"/>
+      <c r="BD16" s="44"/>
+      <c r="BE16" s="44"/>
+      <c r="BF16" s="44"/>
+      <c r="BG16" s="44"/>
+      <c r="BH16" s="44"/>
+      <c r="BI16" s="44"/>
+      <c r="BJ16" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK16" s="44"/>
+      <c r="BL16" s="44"/>
+      <c r="BM16" s="44"/>
+      <c r="BN16" s="44"/>
+      <c r="BO16" s="44"/>
+      <c r="BP16" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="BQ16" s="45"/>
+      <c r="BR16" s="45"/>
+      <c r="BS16" s="45"/>
+      <c r="BT16" s="45"/>
+      <c r="BU16" s="45"/>
+      <c r="BV16" s="45"/>
+      <c r="BW16" s="45"/>
+      <c r="BX16" s="45"/>
+      <c r="BY16" s="45"/>
+      <c r="BZ16" s="45"/>
+      <c r="CA16" s="45"/>
+      <c r="CB16" s="45"/>
+      <c r="CC16" s="45"/>
+      <c r="CD16" s="46"/>
+    </row>
+    <row r="17" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3182,8 +4448,92 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="45"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="45"/>
+      <c r="AF17" s="45"/>
+      <c r="AG17" s="45"/>
+      <c r="AH17" s="45"/>
+      <c r="AI17" s="45"/>
+      <c r="AJ17" s="45"/>
+      <c r="AK17" s="45"/>
+      <c r="AL17" s="45"/>
+      <c r="AM17" s="45"/>
+      <c r="AN17" s="45"/>
+      <c r="AO17" s="45"/>
+      <c r="AP17" s="45"/>
+      <c r="AQ17" s="45"/>
+      <c r="AR17" s="45"/>
+      <c r="AS17" s="45"/>
+      <c r="AT17" s="45"/>
+      <c r="AU17" s="45"/>
+      <c r="AV17" s="45"/>
+      <c r="AW17" s="46"/>
+      <c r="AX17" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY17" s="44"/>
+      <c r="AZ17" s="44"/>
+      <c r="BA17" s="44"/>
+      <c r="BB17" s="44"/>
+      <c r="BC17" s="44"/>
+      <c r="BD17" s="44"/>
+      <c r="BE17" s="44"/>
+      <c r="BF17" s="44"/>
+      <c r="BG17" s="44"/>
+      <c r="BH17" s="44"/>
+      <c r="BI17" s="44"/>
+      <c r="BJ17" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK17" s="44"/>
+      <c r="BL17" s="44"/>
+      <c r="BM17" s="44"/>
+      <c r="BN17" s="44"/>
+      <c r="BO17" s="44"/>
+      <c r="BP17" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="BQ17" s="45"/>
+      <c r="BR17" s="45"/>
+      <c r="BS17" s="45"/>
+      <c r="BT17" s="45"/>
+      <c r="BU17" s="45"/>
+      <c r="BV17" s="45"/>
+      <c r="BW17" s="45"/>
+      <c r="BX17" s="45"/>
+      <c r="BY17" s="45"/>
+      <c r="BZ17" s="45"/>
+      <c r="CA17" s="45"/>
+      <c r="CB17" s="45"/>
+      <c r="CC17" s="45"/>
+      <c r="CD17" s="46"/>
+    </row>
+    <row r="18" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3191,8 +4541,92 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I18" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="45"/>
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="45"/>
+      <c r="AG18" s="45"/>
+      <c r="AH18" s="45"/>
+      <c r="AI18" s="45"/>
+      <c r="AJ18" s="45"/>
+      <c r="AK18" s="45"/>
+      <c r="AL18" s="45"/>
+      <c r="AM18" s="45"/>
+      <c r="AN18" s="45"/>
+      <c r="AO18" s="45"/>
+      <c r="AP18" s="45"/>
+      <c r="AQ18" s="45"/>
+      <c r="AR18" s="45"/>
+      <c r="AS18" s="45"/>
+      <c r="AT18" s="45"/>
+      <c r="AU18" s="45"/>
+      <c r="AV18" s="45"/>
+      <c r="AW18" s="46"/>
+      <c r="AX18" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY18" s="44"/>
+      <c r="AZ18" s="44"/>
+      <c r="BA18" s="44"/>
+      <c r="BB18" s="44"/>
+      <c r="BC18" s="44"/>
+      <c r="BD18" s="44"/>
+      <c r="BE18" s="44"/>
+      <c r="BF18" s="44"/>
+      <c r="BG18" s="44"/>
+      <c r="BH18" s="44"/>
+      <c r="BI18" s="44"/>
+      <c r="BJ18" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK18" s="44"/>
+      <c r="BL18" s="44"/>
+      <c r="BM18" s="44"/>
+      <c r="BN18" s="44"/>
+      <c r="BO18" s="44"/>
+      <c r="BP18" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ18" s="45"/>
+      <c r="BR18" s="45"/>
+      <c r="BS18" s="45"/>
+      <c r="BT18" s="45"/>
+      <c r="BU18" s="45"/>
+      <c r="BV18" s="45"/>
+      <c r="BW18" s="45"/>
+      <c r="BX18" s="45"/>
+      <c r="BY18" s="45"/>
+      <c r="BZ18" s="45"/>
+      <c r="CA18" s="45"/>
+      <c r="CB18" s="45"/>
+      <c r="CC18" s="45"/>
+      <c r="CD18" s="46"/>
+    </row>
+    <row r="19" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -3200,8 +4634,82 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="44"/>
+      <c r="AJ19" s="44"/>
+      <c r="AK19" s="44"/>
+      <c r="AL19" s="44"/>
+      <c r="AM19" s="44"/>
+      <c r="AN19" s="44"/>
+      <c r="AO19" s="44"/>
+      <c r="AP19" s="44"/>
+      <c r="AQ19" s="44"/>
+      <c r="AR19" s="44"/>
+      <c r="AS19" s="44"/>
+      <c r="AT19" s="44"/>
+      <c r="AU19" s="44"/>
+      <c r="AV19" s="44"/>
+      <c r="AW19" s="44"/>
+      <c r="AX19" s="44"/>
+      <c r="AY19" s="44"/>
+      <c r="AZ19" s="44"/>
+      <c r="BA19" s="44"/>
+      <c r="BB19" s="44"/>
+      <c r="BC19" s="44"/>
+      <c r="BD19" s="44"/>
+      <c r="BE19" s="44"/>
+      <c r="BF19" s="44"/>
+      <c r="BG19" s="44"/>
+      <c r="BH19" s="44"/>
+      <c r="BI19" s="44"/>
+      <c r="BJ19" s="44"/>
+      <c r="BK19" s="44"/>
+      <c r="BL19" s="44"/>
+      <c r="BM19" s="44"/>
+      <c r="BN19" s="44"/>
+      <c r="BO19" s="44"/>
+      <c r="BP19" s="44"/>
+      <c r="BQ19" s="44"/>
+      <c r="BR19" s="44"/>
+      <c r="BS19" s="44"/>
+      <c r="BT19" s="44"/>
+      <c r="BU19" s="44"/>
+      <c r="BV19" s="44"/>
+      <c r="BW19" s="44"/>
+      <c r="BX19" s="44"/>
+      <c r="BY19" s="44"/>
+      <c r="BZ19" s="44"/>
+      <c r="CA19" s="44"/>
+      <c r="CB19" s="44"/>
+      <c r="CC19" s="44"/>
+      <c r="CD19" s="44"/>
+    </row>
+    <row r="20" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3209,8 +4717,82 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="44"/>
+      <c r="AJ20" s="44"/>
+      <c r="AK20" s="44"/>
+      <c r="AL20" s="44"/>
+      <c r="AM20" s="44"/>
+      <c r="AN20" s="44"/>
+      <c r="AO20" s="44"/>
+      <c r="AP20" s="44"/>
+      <c r="AQ20" s="44"/>
+      <c r="AR20" s="44"/>
+      <c r="AS20" s="44"/>
+      <c r="AT20" s="44"/>
+      <c r="AU20" s="44"/>
+      <c r="AV20" s="44"/>
+      <c r="AW20" s="44"/>
+      <c r="AX20" s="44"/>
+      <c r="AY20" s="44"/>
+      <c r="AZ20" s="44"/>
+      <c r="BA20" s="44"/>
+      <c r="BB20" s="44"/>
+      <c r="BC20" s="44"/>
+      <c r="BD20" s="44"/>
+      <c r="BE20" s="44"/>
+      <c r="BF20" s="44"/>
+      <c r="BG20" s="44"/>
+      <c r="BH20" s="44"/>
+      <c r="BI20" s="44"/>
+      <c r="BJ20" s="44"/>
+      <c r="BK20" s="44"/>
+      <c r="BL20" s="44"/>
+      <c r="BM20" s="44"/>
+      <c r="BN20" s="44"/>
+      <c r="BO20" s="44"/>
+      <c r="BP20" s="44"/>
+      <c r="BQ20" s="44"/>
+      <c r="BR20" s="44"/>
+      <c r="BS20" s="44"/>
+      <c r="BT20" s="44"/>
+      <c r="BU20" s="44"/>
+      <c r="BV20" s="44"/>
+      <c r="BW20" s="44"/>
+      <c r="BX20" s="44"/>
+      <c r="BY20" s="44"/>
+      <c r="BZ20" s="44"/>
+      <c r="CA20" s="44"/>
+      <c r="CB20" s="44"/>
+      <c r="CC20" s="44"/>
+      <c r="CD20" s="44"/>
+    </row>
+    <row r="21" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -3218,8 +4800,82 @@
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="44"/>
+      <c r="AJ21" s="44"/>
+      <c r="AK21" s="44"/>
+      <c r="AL21" s="44"/>
+      <c r="AM21" s="44"/>
+      <c r="AN21" s="44"/>
+      <c r="AO21" s="44"/>
+      <c r="AP21" s="44"/>
+      <c r="AQ21" s="44"/>
+      <c r="AR21" s="44"/>
+      <c r="AS21" s="44"/>
+      <c r="AT21" s="44"/>
+      <c r="AU21" s="44"/>
+      <c r="AV21" s="44"/>
+      <c r="AW21" s="44"/>
+      <c r="AX21" s="44"/>
+      <c r="AY21" s="44"/>
+      <c r="AZ21" s="44"/>
+      <c r="BA21" s="44"/>
+      <c r="BB21" s="44"/>
+      <c r="BC21" s="44"/>
+      <c r="BD21" s="44"/>
+      <c r="BE21" s="44"/>
+      <c r="BF21" s="44"/>
+      <c r="BG21" s="44"/>
+      <c r="BH21" s="44"/>
+      <c r="BI21" s="44"/>
+      <c r="BJ21" s="44"/>
+      <c r="BK21" s="44"/>
+      <c r="BL21" s="44"/>
+      <c r="BM21" s="44"/>
+      <c r="BN21" s="44"/>
+      <c r="BO21" s="44"/>
+      <c r="BP21" s="44"/>
+      <c r="BQ21" s="44"/>
+      <c r="BR21" s="44"/>
+      <c r="BS21" s="44"/>
+      <c r="BT21" s="44"/>
+      <c r="BU21" s="44"/>
+      <c r="BV21" s="44"/>
+      <c r="BW21" s="44"/>
+      <c r="BX21" s="44"/>
+      <c r="BY21" s="44"/>
+      <c r="BZ21" s="44"/>
+      <c r="CA21" s="44"/>
+      <c r="CB21" s="44"/>
+      <c r="CC21" s="44"/>
+      <c r="CD21" s="44"/>
+    </row>
+    <row r="22" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3228,7 +4884,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -3237,7 +4893,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3246,7 +4902,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -3255,7 +4911,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3264,7 +4920,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -3273,7 +4929,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -3282,7 +4938,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -3291,7 +4947,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -3300,7 +4956,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -3309,7 +4965,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3490,13 +5146,60 @@
       <c r="G51" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="72">
+    <mergeCell ref="I21:U21"/>
+    <mergeCell ref="V21:AW21"/>
+    <mergeCell ref="AX21:BI21"/>
+    <mergeCell ref="BJ21:BO21"/>
+    <mergeCell ref="BP21:CD21"/>
+    <mergeCell ref="I20:U20"/>
+    <mergeCell ref="V20:AW20"/>
+    <mergeCell ref="AX20:BI20"/>
+    <mergeCell ref="BJ20:BO20"/>
+    <mergeCell ref="BP20:CD20"/>
+    <mergeCell ref="I19:U19"/>
+    <mergeCell ref="V19:AW19"/>
+    <mergeCell ref="AX19:BI19"/>
+    <mergeCell ref="BJ19:BO19"/>
+    <mergeCell ref="BP19:CD19"/>
+    <mergeCell ref="I18:U18"/>
+    <mergeCell ref="V18:AW18"/>
+    <mergeCell ref="AX18:BI18"/>
+    <mergeCell ref="BJ18:BO18"/>
+    <mergeCell ref="BP18:CD18"/>
+    <mergeCell ref="I17:U17"/>
+    <mergeCell ref="V17:AW17"/>
+    <mergeCell ref="AX17:BI17"/>
+    <mergeCell ref="BJ17:BO17"/>
+    <mergeCell ref="BP17:CD17"/>
+    <mergeCell ref="I16:U16"/>
+    <mergeCell ref="V16:AW16"/>
+    <mergeCell ref="AX16:BI16"/>
+    <mergeCell ref="BJ16:BO16"/>
+    <mergeCell ref="BP16:CD16"/>
+    <mergeCell ref="I15:U15"/>
+    <mergeCell ref="V15:AW15"/>
+    <mergeCell ref="AX15:BI15"/>
+    <mergeCell ref="BJ15:BO15"/>
+    <mergeCell ref="BP15:CD15"/>
+    <mergeCell ref="I14:U14"/>
+    <mergeCell ref="V14:AW14"/>
+    <mergeCell ref="AX14:BI14"/>
+    <mergeCell ref="BJ14:BO14"/>
+    <mergeCell ref="BP14:CD14"/>
     <mergeCell ref="A12:G13"/>
     <mergeCell ref="A1:XFD3"/>
     <mergeCell ref="A4:XFD5"/>
     <mergeCell ref="A6:G7"/>
     <mergeCell ref="A8:G9"/>
     <mergeCell ref="A10:G11"/>
+    <mergeCell ref="I7:CD9"/>
+    <mergeCell ref="I11:CD12"/>
+    <mergeCell ref="I13:U13"/>
+    <mergeCell ref="V13:AW13"/>
+    <mergeCell ref="AX13:BI13"/>
+    <mergeCell ref="BJ13:BO13"/>
+    <mergeCell ref="BP13:CD13"/>
     <mergeCell ref="A36:G37"/>
     <mergeCell ref="A14:G15"/>
     <mergeCell ref="A16:G17"/>
@@ -3518,6 +5221,11 @@
     <mergeCell ref="A48:G49"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A6:G7" location="トップページ!A1" display="トップページ" xr:uid="{D76BA10E-F696-452E-BF02-87476B5E1679}"/>
+    <hyperlink ref="A8:G9" location="BGMリソース!A1" display="BGMリソース" xr:uid="{F2F89DC3-501D-4B86-A2DA-5A23C2B86781}"/>
+    <hyperlink ref="A10:G11" location="BGM詳細!A1" display="BGM詳細" xr:uid="{3A2ECF7C-9D86-41E0-A6B0-F71416A7F40E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3525,10 +5233,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC931E72-A0E3-46CC-9347-9202F340895C}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:CD77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="A8" sqref="A8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3536,76 +5244,382 @@
     <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:7" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="20" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:82" s="15" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:82" s="15" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:82" s="15" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:82" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:82" s="19" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="18"/>
+    </row>
+    <row r="6" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
+    </row>
+    <row r="7" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
+      <c r="I7" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="28"/>
+      <c r="AR7" s="28"/>
+      <c r="AS7" s="28"/>
+      <c r="AT7" s="28"/>
+      <c r="AU7" s="28"/>
+      <c r="AV7" s="28"/>
+      <c r="AW7" s="28"/>
+      <c r="AX7" s="28"/>
+      <c r="AY7" s="28"/>
+      <c r="AZ7" s="28"/>
+      <c r="BA7" s="28"/>
+      <c r="BB7" s="28"/>
+      <c r="BC7" s="28"/>
+      <c r="BD7" s="28"/>
+      <c r="BE7" s="28"/>
+      <c r="BF7" s="28"/>
+      <c r="BG7" s="28"/>
+      <c r="BH7" s="28"/>
+      <c r="BI7" s="28"/>
+      <c r="BJ7" s="28"/>
+      <c r="BK7" s="28"/>
+      <c r="BL7" s="28"/>
+      <c r="BM7" s="28"/>
+      <c r="BN7" s="28"/>
+      <c r="BO7" s="28"/>
+      <c r="BP7" s="28"/>
+      <c r="BQ7" s="28"/>
+      <c r="BR7" s="28"/>
+      <c r="BS7" s="28"/>
+      <c r="BT7" s="28"/>
+      <c r="BU7" s="28"/>
+      <c r="BV7" s="28"/>
+      <c r="BW7" s="28"/>
+      <c r="BX7" s="28"/>
+      <c r="BY7" s="28"/>
+      <c r="BZ7" s="28"/>
+      <c r="CA7" s="28"/>
+      <c r="CB7" s="28"/>
+      <c r="CC7" s="28"/>
+      <c r="CD7" s="29"/>
+    </row>
+    <row r="8" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="31"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="31"/>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31"/>
+      <c r="AQ8" s="31"/>
+      <c r="AR8" s="31"/>
+      <c r="AS8" s="31"/>
+      <c r="AT8" s="31"/>
+      <c r="AU8" s="31"/>
+      <c r="AV8" s="31"/>
+      <c r="AW8" s="31"/>
+      <c r="AX8" s="31"/>
+      <c r="AY8" s="31"/>
+      <c r="AZ8" s="31"/>
+      <c r="BA8" s="31"/>
+      <c r="BB8" s="31"/>
+      <c r="BC8" s="31"/>
+      <c r="BD8" s="31"/>
+      <c r="BE8" s="31"/>
+      <c r="BF8" s="31"/>
+      <c r="BG8" s="31"/>
+      <c r="BH8" s="31"/>
+      <c r="BI8" s="31"/>
+      <c r="BJ8" s="31"/>
+      <c r="BK8" s="31"/>
+      <c r="BL8" s="31"/>
+      <c r="BM8" s="31"/>
+      <c r="BN8" s="31"/>
+      <c r="BO8" s="31"/>
+      <c r="BP8" s="31"/>
+      <c r="BQ8" s="31"/>
+      <c r="BR8" s="31"/>
+      <c r="BS8" s="31"/>
+      <c r="BT8" s="31"/>
+      <c r="BU8" s="31"/>
+      <c r="BV8" s="31"/>
+      <c r="BW8" s="31"/>
+      <c r="BX8" s="31"/>
+      <c r="BY8" s="31"/>
+      <c r="BZ8" s="31"/>
+      <c r="CA8" s="31"/>
+      <c r="CB8" s="31"/>
+      <c r="CC8" s="31"/>
+      <c r="CD8" s="32"/>
+    </row>
+    <row r="9" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="34"/>
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="34"/>
+      <c r="AU9" s="34"/>
+      <c r="AV9" s="34"/>
+      <c r="AW9" s="34"/>
+      <c r="AX9" s="34"/>
+      <c r="AY9" s="34"/>
+      <c r="AZ9" s="34"/>
+      <c r="BA9" s="34"/>
+      <c r="BB9" s="34"/>
+      <c r="BC9" s="34"/>
+      <c r="BD9" s="34"/>
+      <c r="BE9" s="34"/>
+      <c r="BF9" s="34"/>
+      <c r="BG9" s="34"/>
+      <c r="BH9" s="34"/>
+      <c r="BI9" s="34"/>
+      <c r="BJ9" s="34"/>
+      <c r="BK9" s="34"/>
+      <c r="BL9" s="34"/>
+      <c r="BM9" s="34"/>
+      <c r="BN9" s="34"/>
+      <c r="BO9" s="34"/>
+      <c r="BP9" s="34"/>
+      <c r="BQ9" s="34"/>
+      <c r="BR9" s="34"/>
+      <c r="BS9" s="34"/>
+      <c r="BT9" s="34"/>
+      <c r="BU9" s="34"/>
+      <c r="BV9" s="34"/>
+      <c r="BW9" s="34"/>
+      <c r="BX9" s="34"/>
+      <c r="BY9" s="34"/>
+      <c r="BZ9" s="34"/>
+      <c r="CA9" s="34"/>
+      <c r="CB9" s="34"/>
+      <c r="CC9" s="34"/>
+      <c r="CD9" s="35"/>
+    </row>
+    <row r="10" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+    </row>
+    <row r="11" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="I11" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="37"/>
+      <c r="AM11" s="37"/>
+      <c r="AN11" s="37"/>
+      <c r="AO11" s="37"/>
+      <c r="AP11" s="37"/>
+      <c r="AQ11" s="37"/>
+      <c r="AR11" s="37"/>
+      <c r="AS11" s="37"/>
+      <c r="AT11" s="37"/>
+      <c r="AU11" s="37"/>
+      <c r="AV11" s="37"/>
+      <c r="AW11" s="37"/>
+      <c r="AX11" s="37"/>
+      <c r="AY11" s="37"/>
+      <c r="AZ11" s="37"/>
+      <c r="BA11" s="37"/>
+      <c r="BB11" s="37"/>
+      <c r="BC11" s="37"/>
+      <c r="BD11" s="37"/>
+      <c r="BE11" s="37"/>
+      <c r="BF11" s="37"/>
+      <c r="BG11" s="37"/>
+      <c r="BH11" s="37"/>
+      <c r="BI11" s="37"/>
+      <c r="BJ11" s="37"/>
+      <c r="BK11" s="37"/>
+      <c r="BL11" s="37"/>
+      <c r="BM11" s="37"/>
+      <c r="BN11" s="37"/>
+      <c r="BO11" s="37"/>
+      <c r="BP11" s="37"/>
+      <c r="BQ11" s="37"/>
+      <c r="BR11" s="37"/>
+      <c r="BS11" s="37"/>
+      <c r="BT11" s="37"/>
+      <c r="BU11" s="37"/>
+      <c r="BV11" s="37"/>
+      <c r="BW11" s="37"/>
+      <c r="BX11" s="37"/>
+      <c r="BY11" s="37"/>
+      <c r="BZ11" s="37"/>
+      <c r="CA11" s="37"/>
+      <c r="CB11" s="37"/>
+      <c r="CC11" s="37"/>
+      <c r="CD11" s="38"/>
+    </row>
+    <row r="12" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -3613,8 +5627,82 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="40"/>
+      <c r="AH12" s="40"/>
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="40"/>
+      <c r="AK12" s="40"/>
+      <c r="AL12" s="40"/>
+      <c r="AM12" s="40"/>
+      <c r="AN12" s="40"/>
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="40"/>
+      <c r="AQ12" s="40"/>
+      <c r="AR12" s="40"/>
+      <c r="AS12" s="40"/>
+      <c r="AT12" s="40"/>
+      <c r="AU12" s="40"/>
+      <c r="AV12" s="40"/>
+      <c r="AW12" s="40"/>
+      <c r="AX12" s="40"/>
+      <c r="AY12" s="40"/>
+      <c r="AZ12" s="40"/>
+      <c r="BA12" s="40"/>
+      <c r="BB12" s="40"/>
+      <c r="BC12" s="40"/>
+      <c r="BD12" s="40"/>
+      <c r="BE12" s="40"/>
+      <c r="BF12" s="40"/>
+      <c r="BG12" s="40"/>
+      <c r="BH12" s="40"/>
+      <c r="BI12" s="40"/>
+      <c r="BJ12" s="40"/>
+      <c r="BK12" s="40"/>
+      <c r="BL12" s="40"/>
+      <c r="BM12" s="40"/>
+      <c r="BN12" s="40"/>
+      <c r="BO12" s="40"/>
+      <c r="BP12" s="40"/>
+      <c r="BQ12" s="40"/>
+      <c r="BR12" s="40"/>
+      <c r="BS12" s="40"/>
+      <c r="BT12" s="40"/>
+      <c r="BU12" s="40"/>
+      <c r="BV12" s="40"/>
+      <c r="BW12" s="40"/>
+      <c r="BX12" s="40"/>
+      <c r="BY12" s="40"/>
+      <c r="BZ12" s="40"/>
+      <c r="CA12" s="40"/>
+      <c r="CB12" s="40"/>
+      <c r="CC12" s="40"/>
+      <c r="CD12" s="41"/>
+    </row>
+    <row r="13" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3622,8 +5710,92 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I13" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="42"/>
+      <c r="AJ13" s="42"/>
+      <c r="AK13" s="42"/>
+      <c r="AL13" s="42"/>
+      <c r="AM13" s="42"/>
+      <c r="AN13" s="42"/>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="42"/>
+      <c r="AR13" s="42"/>
+      <c r="AS13" s="42"/>
+      <c r="AT13" s="42"/>
+      <c r="AU13" s="42"/>
+      <c r="AV13" s="42"/>
+      <c r="AW13" s="42"/>
+      <c r="AX13" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY13" s="42"/>
+      <c r="AZ13" s="42"/>
+      <c r="BA13" s="42"/>
+      <c r="BB13" s="42"/>
+      <c r="BC13" s="42"/>
+      <c r="BD13" s="42"/>
+      <c r="BE13" s="42"/>
+      <c r="BF13" s="42"/>
+      <c r="BG13" s="42"/>
+      <c r="BH13" s="42"/>
+      <c r="BI13" s="42"/>
+      <c r="BJ13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="BK13" s="42"/>
+      <c r="BL13" s="42"/>
+      <c r="BM13" s="42"/>
+      <c r="BN13" s="42"/>
+      <c r="BO13" s="42"/>
+      <c r="BP13" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="BQ13" s="42"/>
+      <c r="BR13" s="42"/>
+      <c r="BS13" s="42"/>
+      <c r="BT13" s="42"/>
+      <c r="BU13" s="42"/>
+      <c r="BV13" s="42"/>
+      <c r="BW13" s="42"/>
+      <c r="BX13" s="42"/>
+      <c r="BY13" s="42"/>
+      <c r="BZ13" s="42"/>
+      <c r="CA13" s="42"/>
+      <c r="CB13" s="42"/>
+      <c r="CC13" s="42"/>
+      <c r="CD13" s="42"/>
+    </row>
+    <row r="14" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -3631,8 +5803,92 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I14" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="48"/>
+      <c r="AO14" s="48"/>
+      <c r="AP14" s="48"/>
+      <c r="AQ14" s="48"/>
+      <c r="AR14" s="48"/>
+      <c r="AS14" s="48"/>
+      <c r="AT14" s="48"/>
+      <c r="AU14" s="48"/>
+      <c r="AV14" s="48"/>
+      <c r="AW14" s="48"/>
+      <c r="AX14" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY14" s="48"/>
+      <c r="AZ14" s="48"/>
+      <c r="BA14" s="48"/>
+      <c r="BB14" s="48"/>
+      <c r="BC14" s="48"/>
+      <c r="BD14" s="48"/>
+      <c r="BE14" s="48"/>
+      <c r="BF14" s="48"/>
+      <c r="BG14" s="48"/>
+      <c r="BH14" s="48"/>
+      <c r="BI14" s="48"/>
+      <c r="BJ14" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK14" s="48"/>
+      <c r="BL14" s="48"/>
+      <c r="BM14" s="48"/>
+      <c r="BN14" s="48"/>
+      <c r="BO14" s="48"/>
+      <c r="BP14" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="BQ14" s="48"/>
+      <c r="BR14" s="48"/>
+      <c r="BS14" s="48"/>
+      <c r="BT14" s="48"/>
+      <c r="BU14" s="48"/>
+      <c r="BV14" s="48"/>
+      <c r="BW14" s="48"/>
+      <c r="BX14" s="48"/>
+      <c r="BY14" s="48"/>
+      <c r="BZ14" s="48"/>
+      <c r="CA14" s="48"/>
+      <c r="CB14" s="48"/>
+      <c r="CC14" s="48"/>
+      <c r="CD14" s="48"/>
+    </row>
+    <row r="15" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3640,8 +5896,82 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44"/>
+      <c r="AK15" s="44"/>
+      <c r="AL15" s="44"/>
+      <c r="AM15" s="44"/>
+      <c r="AN15" s="44"/>
+      <c r="AO15" s="44"/>
+      <c r="AP15" s="44"/>
+      <c r="AQ15" s="44"/>
+      <c r="AR15" s="44"/>
+      <c r="AS15" s="44"/>
+      <c r="AT15" s="44"/>
+      <c r="AU15" s="44"/>
+      <c r="AV15" s="44"/>
+      <c r="AW15" s="44"/>
+      <c r="AX15" s="44"/>
+      <c r="AY15" s="44"/>
+      <c r="AZ15" s="44"/>
+      <c r="BA15" s="44"/>
+      <c r="BB15" s="44"/>
+      <c r="BC15" s="44"/>
+      <c r="BD15" s="44"/>
+      <c r="BE15" s="44"/>
+      <c r="BF15" s="44"/>
+      <c r="BG15" s="44"/>
+      <c r="BH15" s="44"/>
+      <c r="BI15" s="44"/>
+      <c r="BJ15" s="44"/>
+      <c r="BK15" s="44"/>
+      <c r="BL15" s="44"/>
+      <c r="BM15" s="44"/>
+      <c r="BN15" s="44"/>
+      <c r="BO15" s="44"/>
+      <c r="BP15" s="44"/>
+      <c r="BQ15" s="44"/>
+      <c r="BR15" s="44"/>
+      <c r="BS15" s="44"/>
+      <c r="BT15" s="44"/>
+      <c r="BU15" s="44"/>
+      <c r="BV15" s="44"/>
+      <c r="BW15" s="44"/>
+      <c r="BX15" s="44"/>
+      <c r="BY15" s="44"/>
+      <c r="BZ15" s="44"/>
+      <c r="CA15" s="44"/>
+      <c r="CB15" s="44"/>
+      <c r="CC15" s="44"/>
+      <c r="CD15" s="44"/>
+    </row>
+    <row r="16" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3649,8 +5979,82 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="44"/>
+      <c r="AJ16" s="44"/>
+      <c r="AK16" s="44"/>
+      <c r="AL16" s="44"/>
+      <c r="AM16" s="44"/>
+      <c r="AN16" s="44"/>
+      <c r="AO16" s="44"/>
+      <c r="AP16" s="44"/>
+      <c r="AQ16" s="44"/>
+      <c r="AR16" s="44"/>
+      <c r="AS16" s="44"/>
+      <c r="AT16" s="44"/>
+      <c r="AU16" s="44"/>
+      <c r="AV16" s="44"/>
+      <c r="AW16" s="44"/>
+      <c r="AX16" s="44"/>
+      <c r="AY16" s="44"/>
+      <c r="AZ16" s="44"/>
+      <c r="BA16" s="44"/>
+      <c r="BB16" s="44"/>
+      <c r="BC16" s="44"/>
+      <c r="BD16" s="44"/>
+      <c r="BE16" s="44"/>
+      <c r="BF16" s="44"/>
+      <c r="BG16" s="44"/>
+      <c r="BH16" s="44"/>
+      <c r="BI16" s="44"/>
+      <c r="BJ16" s="44"/>
+      <c r="BK16" s="44"/>
+      <c r="BL16" s="44"/>
+      <c r="BM16" s="44"/>
+      <c r="BN16" s="44"/>
+      <c r="BO16" s="44"/>
+      <c r="BP16" s="44"/>
+      <c r="BQ16" s="44"/>
+      <c r="BR16" s="44"/>
+      <c r="BS16" s="44"/>
+      <c r="BT16" s="44"/>
+      <c r="BU16" s="44"/>
+      <c r="BV16" s="44"/>
+      <c r="BW16" s="44"/>
+      <c r="BX16" s="44"/>
+      <c r="BY16" s="44"/>
+      <c r="BZ16" s="44"/>
+      <c r="CA16" s="44"/>
+      <c r="CB16" s="44"/>
+      <c r="CC16" s="44"/>
+      <c r="CD16" s="44"/>
+    </row>
+    <row r="17" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3658,8 +6062,84 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="44"/>
+      <c r="AJ17" s="44"/>
+      <c r="AK17" s="44"/>
+      <c r="AL17" s="44"/>
+      <c r="AM17" s="44"/>
+      <c r="AN17" s="44"/>
+      <c r="AO17" s="44"/>
+      <c r="AP17" s="44"/>
+      <c r="AQ17" s="44"/>
+      <c r="AR17" s="44"/>
+      <c r="AS17" s="44"/>
+      <c r="AT17" s="44"/>
+      <c r="AU17" s="44"/>
+      <c r="AV17" s="44"/>
+      <c r="AW17" s="44"/>
+      <c r="AX17" s="44"/>
+      <c r="AY17" s="44"/>
+      <c r="AZ17" s="44"/>
+      <c r="BA17" s="44"/>
+      <c r="BB17" s="44"/>
+      <c r="BC17" s="44"/>
+      <c r="BD17" s="44"/>
+      <c r="BE17" s="44"/>
+      <c r="BF17" s="44"/>
+      <c r="BG17" s="44"/>
+      <c r="BH17" s="44"/>
+      <c r="BI17" s="44"/>
+      <c r="BJ17" s="44"/>
+      <c r="BK17" s="44"/>
+      <c r="BL17" s="44"/>
+      <c r="BM17" s="44"/>
+      <c r="BN17" s="44"/>
+      <c r="BO17" s="44"/>
+      <c r="BP17" s="44"/>
+      <c r="BQ17" s="44"/>
+      <c r="BR17" s="44"/>
+      <c r="BS17" s="44"/>
+      <c r="BT17" s="44"/>
+      <c r="BU17" s="44"/>
+      <c r="BV17" s="44"/>
+      <c r="BW17" s="44"/>
+      <c r="BX17" s="44"/>
+      <c r="BY17" s="44"/>
+      <c r="BZ17" s="44"/>
+      <c r="CA17" s="44"/>
+      <c r="CB17" s="44"/>
+      <c r="CC17" s="44"/>
+      <c r="CD17" s="44"/>
+    </row>
+    <row r="18" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3667,8 +6147,82 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="44"/>
+      <c r="AJ18" s="44"/>
+      <c r="AK18" s="44"/>
+      <c r="AL18" s="44"/>
+      <c r="AM18" s="44"/>
+      <c r="AN18" s="44"/>
+      <c r="AO18" s="44"/>
+      <c r="AP18" s="44"/>
+      <c r="AQ18" s="44"/>
+      <c r="AR18" s="44"/>
+      <c r="AS18" s="44"/>
+      <c r="AT18" s="44"/>
+      <c r="AU18" s="44"/>
+      <c r="AV18" s="44"/>
+      <c r="AW18" s="44"/>
+      <c r="AX18" s="44"/>
+      <c r="AY18" s="44"/>
+      <c r="AZ18" s="44"/>
+      <c r="BA18" s="44"/>
+      <c r="BB18" s="44"/>
+      <c r="BC18" s="44"/>
+      <c r="BD18" s="44"/>
+      <c r="BE18" s="44"/>
+      <c r="BF18" s="44"/>
+      <c r="BG18" s="44"/>
+      <c r="BH18" s="44"/>
+      <c r="BI18" s="44"/>
+      <c r="BJ18" s="44"/>
+      <c r="BK18" s="44"/>
+      <c r="BL18" s="44"/>
+      <c r="BM18" s="44"/>
+      <c r="BN18" s="44"/>
+      <c r="BO18" s="44"/>
+      <c r="BP18" s="44"/>
+      <c r="BQ18" s="44"/>
+      <c r="BR18" s="44"/>
+      <c r="BS18" s="44"/>
+      <c r="BT18" s="44"/>
+      <c r="BU18" s="44"/>
+      <c r="BV18" s="44"/>
+      <c r="BW18" s="44"/>
+      <c r="BX18" s="44"/>
+      <c r="BY18" s="44"/>
+      <c r="BZ18" s="44"/>
+      <c r="CA18" s="44"/>
+      <c r="CB18" s="44"/>
+      <c r="CC18" s="44"/>
+      <c r="CD18" s="44"/>
+    </row>
+    <row r="19" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -3676,8 +6230,86 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I19" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="52"/>
+      <c r="AJ19" s="52"/>
+      <c r="AK19" s="52"/>
+      <c r="AL19" s="52"/>
+      <c r="AM19" s="52"/>
+      <c r="AN19" s="52"/>
+      <c r="AO19" s="52"/>
+      <c r="AP19" s="52"/>
+      <c r="AQ19" s="52"/>
+      <c r="AR19" s="52"/>
+      <c r="AS19" s="52"/>
+      <c r="AT19" s="52"/>
+      <c r="AU19" s="52"/>
+      <c r="AV19" s="52"/>
+      <c r="AW19" s="52"/>
+      <c r="AX19" s="52"/>
+      <c r="AY19" s="52"/>
+      <c r="AZ19" s="52"/>
+      <c r="BA19" s="52"/>
+      <c r="BB19" s="52"/>
+      <c r="BC19" s="52"/>
+      <c r="BD19" s="52"/>
+      <c r="BE19" s="52"/>
+      <c r="BF19" s="52"/>
+      <c r="BG19" s="52"/>
+      <c r="BH19" s="52"/>
+      <c r="BI19" s="52"/>
+      <c r="BJ19" s="52"/>
+      <c r="BK19" s="52"/>
+      <c r="BL19" s="52"/>
+      <c r="BM19" s="52"/>
+      <c r="BN19" s="52"/>
+      <c r="BO19" s="52"/>
+      <c r="BP19" s="52"/>
+      <c r="BQ19" s="52"/>
+      <c r="BR19" s="52"/>
+      <c r="BS19" s="52"/>
+      <c r="BT19" s="52"/>
+      <c r="BU19" s="52"/>
+      <c r="BV19" s="52"/>
+      <c r="BW19" s="52"/>
+      <c r="BX19" s="52"/>
+      <c r="BY19" s="52"/>
+      <c r="BZ19" s="52"/>
+      <c r="CA19" s="52"/>
+      <c r="CB19" s="52"/>
+      <c r="CC19" s="52"/>
+      <c r="CD19" s="52"/>
+    </row>
+    <row r="20" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3685,8 +6317,82 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="52"/>
+      <c r="AJ20" s="52"/>
+      <c r="AK20" s="52"/>
+      <c r="AL20" s="52"/>
+      <c r="AM20" s="52"/>
+      <c r="AN20" s="52"/>
+      <c r="AO20" s="52"/>
+      <c r="AP20" s="52"/>
+      <c r="AQ20" s="52"/>
+      <c r="AR20" s="52"/>
+      <c r="AS20" s="52"/>
+      <c r="AT20" s="52"/>
+      <c r="AU20" s="52"/>
+      <c r="AV20" s="52"/>
+      <c r="AW20" s="52"/>
+      <c r="AX20" s="52"/>
+      <c r="AY20" s="52"/>
+      <c r="AZ20" s="52"/>
+      <c r="BA20" s="52"/>
+      <c r="BB20" s="52"/>
+      <c r="BC20" s="52"/>
+      <c r="BD20" s="52"/>
+      <c r="BE20" s="52"/>
+      <c r="BF20" s="52"/>
+      <c r="BG20" s="52"/>
+      <c r="BH20" s="52"/>
+      <c r="BI20" s="52"/>
+      <c r="BJ20" s="52"/>
+      <c r="BK20" s="52"/>
+      <c r="BL20" s="52"/>
+      <c r="BM20" s="52"/>
+      <c r="BN20" s="52"/>
+      <c r="BO20" s="52"/>
+      <c r="BP20" s="52"/>
+      <c r="BQ20" s="52"/>
+      <c r="BR20" s="52"/>
+      <c r="BS20" s="52"/>
+      <c r="BT20" s="52"/>
+      <c r="BU20" s="52"/>
+      <c r="BV20" s="52"/>
+      <c r="BW20" s="52"/>
+      <c r="BX20" s="52"/>
+      <c r="BY20" s="52"/>
+      <c r="BZ20" s="52"/>
+      <c r="CA20" s="52"/>
+      <c r="CB20" s="52"/>
+      <c r="CC20" s="52"/>
+      <c r="CD20" s="52"/>
+    </row>
+    <row r="21" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -3694,8 +6400,82 @@
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="52"/>
+      <c r="AL21" s="52"/>
+      <c r="AM21" s="52"/>
+      <c r="AN21" s="52"/>
+      <c r="AO21" s="52"/>
+      <c r="AP21" s="52"/>
+      <c r="AQ21" s="52"/>
+      <c r="AR21" s="52"/>
+      <c r="AS21" s="52"/>
+      <c r="AT21" s="52"/>
+      <c r="AU21" s="52"/>
+      <c r="AV21" s="52"/>
+      <c r="AW21" s="52"/>
+      <c r="AX21" s="52"/>
+      <c r="AY21" s="52"/>
+      <c r="AZ21" s="52"/>
+      <c r="BA21" s="52"/>
+      <c r="BB21" s="52"/>
+      <c r="BC21" s="52"/>
+      <c r="BD21" s="52"/>
+      <c r="BE21" s="52"/>
+      <c r="BF21" s="52"/>
+      <c r="BG21" s="52"/>
+      <c r="BH21" s="52"/>
+      <c r="BI21" s="52"/>
+      <c r="BJ21" s="52"/>
+      <c r="BK21" s="52"/>
+      <c r="BL21" s="52"/>
+      <c r="BM21" s="52"/>
+      <c r="BN21" s="52"/>
+      <c r="BO21" s="52"/>
+      <c r="BP21" s="52"/>
+      <c r="BQ21" s="52"/>
+      <c r="BR21" s="52"/>
+      <c r="BS21" s="52"/>
+      <c r="BT21" s="52"/>
+      <c r="BU21" s="52"/>
+      <c r="BV21" s="52"/>
+      <c r="BW21" s="52"/>
+      <c r="BX21" s="52"/>
+      <c r="BY21" s="52"/>
+      <c r="BZ21" s="52"/>
+      <c r="CA21" s="52"/>
+      <c r="CB21" s="52"/>
+      <c r="CC21" s="52"/>
+      <c r="CD21" s="52"/>
+    </row>
+    <row r="22" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3704,7 +6484,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -3713,7 +6493,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3722,7 +6502,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -3730,8 +6510,84 @@
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="37"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="37"/>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="37"/>
+      <c r="AM25" s="37"/>
+      <c r="AN25" s="37"/>
+      <c r="AO25" s="37"/>
+      <c r="AP25" s="37"/>
+      <c r="AQ25" s="37"/>
+      <c r="AR25" s="37"/>
+      <c r="AS25" s="37"/>
+      <c r="AT25" s="37"/>
+      <c r="AU25" s="37"/>
+      <c r="AV25" s="37"/>
+      <c r="AW25" s="37"/>
+      <c r="AX25" s="37"/>
+      <c r="AY25" s="37"/>
+      <c r="AZ25" s="37"/>
+      <c r="BA25" s="37"/>
+      <c r="BB25" s="37"/>
+      <c r="BC25" s="37"/>
+      <c r="BD25" s="37"/>
+      <c r="BE25" s="37"/>
+      <c r="BF25" s="37"/>
+      <c r="BG25" s="37"/>
+      <c r="BH25" s="37"/>
+      <c r="BI25" s="37"/>
+      <c r="BJ25" s="37"/>
+      <c r="BK25" s="37"/>
+      <c r="BL25" s="37"/>
+      <c r="BM25" s="37"/>
+      <c r="BN25" s="37"/>
+      <c r="BO25" s="37"/>
+      <c r="BP25" s="37"/>
+      <c r="BQ25" s="37"/>
+      <c r="BR25" s="37"/>
+      <c r="BS25" s="37"/>
+      <c r="BT25" s="37"/>
+      <c r="BU25" s="37"/>
+      <c r="BV25" s="37"/>
+      <c r="BW25" s="37"/>
+      <c r="BX25" s="37"/>
+      <c r="BY25" s="37"/>
+      <c r="BZ25" s="37"/>
+      <c r="CA25" s="37"/>
+      <c r="CB25" s="37"/>
+      <c r="CC25" s="37"/>
+      <c r="CD25" s="38"/>
+    </row>
+    <row r="26" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3739,8 +6595,82 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="40"/>
+      <c r="AI26" s="40"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="40"/>
+      <c r="AM26" s="40"/>
+      <c r="AN26" s="40"/>
+      <c r="AO26" s="40"/>
+      <c r="AP26" s="40"/>
+      <c r="AQ26" s="40"/>
+      <c r="AR26" s="40"/>
+      <c r="AS26" s="40"/>
+      <c r="AT26" s="40"/>
+      <c r="AU26" s="40"/>
+      <c r="AV26" s="40"/>
+      <c r="AW26" s="40"/>
+      <c r="AX26" s="40"/>
+      <c r="AY26" s="40"/>
+      <c r="AZ26" s="40"/>
+      <c r="BA26" s="40"/>
+      <c r="BB26" s="40"/>
+      <c r="BC26" s="40"/>
+      <c r="BD26" s="40"/>
+      <c r="BE26" s="40"/>
+      <c r="BF26" s="40"/>
+      <c r="BG26" s="40"/>
+      <c r="BH26" s="40"/>
+      <c r="BI26" s="40"/>
+      <c r="BJ26" s="40"/>
+      <c r="BK26" s="40"/>
+      <c r="BL26" s="40"/>
+      <c r="BM26" s="40"/>
+      <c r="BN26" s="40"/>
+      <c r="BO26" s="40"/>
+      <c r="BP26" s="40"/>
+      <c r="BQ26" s="40"/>
+      <c r="BR26" s="40"/>
+      <c r="BS26" s="40"/>
+      <c r="BT26" s="40"/>
+      <c r="BU26" s="40"/>
+      <c r="BV26" s="40"/>
+      <c r="BW26" s="40"/>
+      <c r="BX26" s="40"/>
+      <c r="BY26" s="40"/>
+      <c r="BZ26" s="40"/>
+      <c r="CA26" s="40"/>
+      <c r="CB26" s="40"/>
+      <c r="CC26" s="40"/>
+      <c r="CD26" s="41"/>
+    </row>
+    <row r="27" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -3748,8 +6678,92 @@
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I27" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="42"/>
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="42"/>
+      <c r="AI27" s="42"/>
+      <c r="AJ27" s="42"/>
+      <c r="AK27" s="42"/>
+      <c r="AL27" s="42"/>
+      <c r="AM27" s="42"/>
+      <c r="AN27" s="42"/>
+      <c r="AO27" s="42"/>
+      <c r="AP27" s="42"/>
+      <c r="AQ27" s="42"/>
+      <c r="AR27" s="42"/>
+      <c r="AS27" s="42"/>
+      <c r="AT27" s="42"/>
+      <c r="AU27" s="42"/>
+      <c r="AV27" s="42"/>
+      <c r="AW27" s="42"/>
+      <c r="AX27" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY27" s="42"/>
+      <c r="AZ27" s="42"/>
+      <c r="BA27" s="42"/>
+      <c r="BB27" s="42"/>
+      <c r="BC27" s="42"/>
+      <c r="BD27" s="42"/>
+      <c r="BE27" s="42"/>
+      <c r="BF27" s="42"/>
+      <c r="BG27" s="42"/>
+      <c r="BH27" s="42"/>
+      <c r="BI27" s="42"/>
+      <c r="BJ27" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="BK27" s="42"/>
+      <c r="BL27" s="42"/>
+      <c r="BM27" s="42"/>
+      <c r="BN27" s="42"/>
+      <c r="BO27" s="42"/>
+      <c r="BP27" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="BQ27" s="42"/>
+      <c r="BR27" s="42"/>
+      <c r="BS27" s="42"/>
+      <c r="BT27" s="42"/>
+      <c r="BU27" s="42"/>
+      <c r="BV27" s="42"/>
+      <c r="BW27" s="42"/>
+      <c r="BX27" s="42"/>
+      <c r="BY27" s="42"/>
+      <c r="BZ27" s="42"/>
+      <c r="CA27" s="42"/>
+      <c r="CB27" s="42"/>
+      <c r="CC27" s="42"/>
+      <c r="CD27" s="42"/>
+    </row>
+    <row r="28" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -3757,8 +6771,92 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I28" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="48"/>
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="48"/>
+      <c r="AG28" s="48"/>
+      <c r="AH28" s="48"/>
+      <c r="AI28" s="48"/>
+      <c r="AJ28" s="48"/>
+      <c r="AK28" s="48"/>
+      <c r="AL28" s="48"/>
+      <c r="AM28" s="48"/>
+      <c r="AN28" s="48"/>
+      <c r="AO28" s="48"/>
+      <c r="AP28" s="48"/>
+      <c r="AQ28" s="48"/>
+      <c r="AR28" s="48"/>
+      <c r="AS28" s="48"/>
+      <c r="AT28" s="48"/>
+      <c r="AU28" s="48"/>
+      <c r="AV28" s="48"/>
+      <c r="AW28" s="48"/>
+      <c r="AX28" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY28" s="48"/>
+      <c r="AZ28" s="48"/>
+      <c r="BA28" s="48"/>
+      <c r="BB28" s="48"/>
+      <c r="BC28" s="48"/>
+      <c r="BD28" s="48"/>
+      <c r="BE28" s="48"/>
+      <c r="BF28" s="48"/>
+      <c r="BG28" s="48"/>
+      <c r="BH28" s="48"/>
+      <c r="BI28" s="48"/>
+      <c r="BJ28" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK28" s="48"/>
+      <c r="BL28" s="48"/>
+      <c r="BM28" s="48"/>
+      <c r="BN28" s="48"/>
+      <c r="BO28" s="48"/>
+      <c r="BP28" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="BQ28" s="48"/>
+      <c r="BR28" s="48"/>
+      <c r="BS28" s="48"/>
+      <c r="BT28" s="48"/>
+      <c r="BU28" s="48"/>
+      <c r="BV28" s="48"/>
+      <c r="BW28" s="48"/>
+      <c r="BX28" s="48"/>
+      <c r="BY28" s="48"/>
+      <c r="BZ28" s="48"/>
+      <c r="CA28" s="48"/>
+      <c r="CB28" s="48"/>
+      <c r="CC28" s="48"/>
+      <c r="CD28" s="48"/>
+    </row>
+    <row r="29" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -3766,8 +6864,82 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="44"/>
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="44"/>
+      <c r="AI29" s="44"/>
+      <c r="AJ29" s="44"/>
+      <c r="AK29" s="44"/>
+      <c r="AL29" s="44"/>
+      <c r="AM29" s="44"/>
+      <c r="AN29" s="44"/>
+      <c r="AO29" s="44"/>
+      <c r="AP29" s="44"/>
+      <c r="AQ29" s="44"/>
+      <c r="AR29" s="44"/>
+      <c r="AS29" s="44"/>
+      <c r="AT29" s="44"/>
+      <c r="AU29" s="44"/>
+      <c r="AV29" s="44"/>
+      <c r="AW29" s="44"/>
+      <c r="AX29" s="44"/>
+      <c r="AY29" s="44"/>
+      <c r="AZ29" s="44"/>
+      <c r="BA29" s="44"/>
+      <c r="BB29" s="44"/>
+      <c r="BC29" s="44"/>
+      <c r="BD29" s="44"/>
+      <c r="BE29" s="44"/>
+      <c r="BF29" s="44"/>
+      <c r="BG29" s="44"/>
+      <c r="BH29" s="44"/>
+      <c r="BI29" s="44"/>
+      <c r="BJ29" s="44"/>
+      <c r="BK29" s="44"/>
+      <c r="BL29" s="44"/>
+      <c r="BM29" s="44"/>
+      <c r="BN29" s="44"/>
+      <c r="BO29" s="44"/>
+      <c r="BP29" s="44"/>
+      <c r="BQ29" s="44"/>
+      <c r="BR29" s="44"/>
+      <c r="BS29" s="44"/>
+      <c r="BT29" s="44"/>
+      <c r="BU29" s="44"/>
+      <c r="BV29" s="44"/>
+      <c r="BW29" s="44"/>
+      <c r="BX29" s="44"/>
+      <c r="BY29" s="44"/>
+      <c r="BZ29" s="44"/>
+      <c r="CA29" s="44"/>
+      <c r="CB29" s="44"/>
+      <c r="CC29" s="44"/>
+      <c r="CD29" s="44"/>
+    </row>
+    <row r="30" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -3775,8 +6947,82 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="44"/>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="44"/>
+      <c r="AE30" s="44"/>
+      <c r="AF30" s="44"/>
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="44"/>
+      <c r="AI30" s="44"/>
+      <c r="AJ30" s="44"/>
+      <c r="AK30" s="44"/>
+      <c r="AL30" s="44"/>
+      <c r="AM30" s="44"/>
+      <c r="AN30" s="44"/>
+      <c r="AO30" s="44"/>
+      <c r="AP30" s="44"/>
+      <c r="AQ30" s="44"/>
+      <c r="AR30" s="44"/>
+      <c r="AS30" s="44"/>
+      <c r="AT30" s="44"/>
+      <c r="AU30" s="44"/>
+      <c r="AV30" s="44"/>
+      <c r="AW30" s="44"/>
+      <c r="AX30" s="44"/>
+      <c r="AY30" s="44"/>
+      <c r="AZ30" s="44"/>
+      <c r="BA30" s="44"/>
+      <c r="BB30" s="44"/>
+      <c r="BC30" s="44"/>
+      <c r="BD30" s="44"/>
+      <c r="BE30" s="44"/>
+      <c r="BF30" s="44"/>
+      <c r="BG30" s="44"/>
+      <c r="BH30" s="44"/>
+      <c r="BI30" s="44"/>
+      <c r="BJ30" s="44"/>
+      <c r="BK30" s="44"/>
+      <c r="BL30" s="44"/>
+      <c r="BM30" s="44"/>
+      <c r="BN30" s="44"/>
+      <c r="BO30" s="44"/>
+      <c r="BP30" s="44"/>
+      <c r="BQ30" s="44"/>
+      <c r="BR30" s="44"/>
+      <c r="BS30" s="44"/>
+      <c r="BT30" s="44"/>
+      <c r="BU30" s="44"/>
+      <c r="BV30" s="44"/>
+      <c r="BW30" s="44"/>
+      <c r="BX30" s="44"/>
+      <c r="BY30" s="44"/>
+      <c r="BZ30" s="44"/>
+      <c r="CA30" s="44"/>
+      <c r="CB30" s="44"/>
+      <c r="CC30" s="44"/>
+      <c r="CD30" s="44"/>
+    </row>
+    <row r="31" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -3784,8 +7030,84 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I31" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="44"/>
+      <c r="AA31" s="44"/>
+      <c r="AB31" s="44"/>
+      <c r="AC31" s="44"/>
+      <c r="AD31" s="44"/>
+      <c r="AE31" s="44"/>
+      <c r="AF31" s="44"/>
+      <c r="AG31" s="44"/>
+      <c r="AH31" s="44"/>
+      <c r="AI31" s="44"/>
+      <c r="AJ31" s="44"/>
+      <c r="AK31" s="44"/>
+      <c r="AL31" s="44"/>
+      <c r="AM31" s="44"/>
+      <c r="AN31" s="44"/>
+      <c r="AO31" s="44"/>
+      <c r="AP31" s="44"/>
+      <c r="AQ31" s="44"/>
+      <c r="AR31" s="44"/>
+      <c r="AS31" s="44"/>
+      <c r="AT31" s="44"/>
+      <c r="AU31" s="44"/>
+      <c r="AV31" s="44"/>
+      <c r="AW31" s="44"/>
+      <c r="AX31" s="44"/>
+      <c r="AY31" s="44"/>
+      <c r="AZ31" s="44"/>
+      <c r="BA31" s="44"/>
+      <c r="BB31" s="44"/>
+      <c r="BC31" s="44"/>
+      <c r="BD31" s="44"/>
+      <c r="BE31" s="44"/>
+      <c r="BF31" s="44"/>
+      <c r="BG31" s="44"/>
+      <c r="BH31" s="44"/>
+      <c r="BI31" s="44"/>
+      <c r="BJ31" s="44"/>
+      <c r="BK31" s="44"/>
+      <c r="BL31" s="44"/>
+      <c r="BM31" s="44"/>
+      <c r="BN31" s="44"/>
+      <c r="BO31" s="44"/>
+      <c r="BP31" s="44"/>
+      <c r="BQ31" s="44"/>
+      <c r="BR31" s="44"/>
+      <c r="BS31" s="44"/>
+      <c r="BT31" s="44"/>
+      <c r="BU31" s="44"/>
+      <c r="BV31" s="44"/>
+      <c r="BW31" s="44"/>
+      <c r="BX31" s="44"/>
+      <c r="BY31" s="44"/>
+      <c r="BZ31" s="44"/>
+      <c r="CA31" s="44"/>
+      <c r="CB31" s="44"/>
+      <c r="CC31" s="44"/>
+      <c r="CD31" s="44"/>
+    </row>
+    <row r="32" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3793,8 +7115,82 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="44"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="44"/>
+      <c r="AI32" s="44"/>
+      <c r="AJ32" s="44"/>
+      <c r="AK32" s="44"/>
+      <c r="AL32" s="44"/>
+      <c r="AM32" s="44"/>
+      <c r="AN32" s="44"/>
+      <c r="AO32" s="44"/>
+      <c r="AP32" s="44"/>
+      <c r="AQ32" s="44"/>
+      <c r="AR32" s="44"/>
+      <c r="AS32" s="44"/>
+      <c r="AT32" s="44"/>
+      <c r="AU32" s="44"/>
+      <c r="AV32" s="44"/>
+      <c r="AW32" s="44"/>
+      <c r="AX32" s="44"/>
+      <c r="AY32" s="44"/>
+      <c r="AZ32" s="44"/>
+      <c r="BA32" s="44"/>
+      <c r="BB32" s="44"/>
+      <c r="BC32" s="44"/>
+      <c r="BD32" s="44"/>
+      <c r="BE32" s="44"/>
+      <c r="BF32" s="44"/>
+      <c r="BG32" s="44"/>
+      <c r="BH32" s="44"/>
+      <c r="BI32" s="44"/>
+      <c r="BJ32" s="44"/>
+      <c r="BK32" s="44"/>
+      <c r="BL32" s="44"/>
+      <c r="BM32" s="44"/>
+      <c r="BN32" s="44"/>
+      <c r="BO32" s="44"/>
+      <c r="BP32" s="44"/>
+      <c r="BQ32" s="44"/>
+      <c r="BR32" s="44"/>
+      <c r="BS32" s="44"/>
+      <c r="BT32" s="44"/>
+      <c r="BU32" s="44"/>
+      <c r="BV32" s="44"/>
+      <c r="BW32" s="44"/>
+      <c r="BX32" s="44"/>
+      <c r="BY32" s="44"/>
+      <c r="BZ32" s="44"/>
+      <c r="CA32" s="44"/>
+      <c r="CB32" s="44"/>
+      <c r="CC32" s="44"/>
+      <c r="CD32" s="44"/>
+    </row>
+    <row r="33" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -3802,8 +7198,86 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I33" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="52"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="52"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="52"/>
+      <c r="AL33" s="52"/>
+      <c r="AM33" s="52"/>
+      <c r="AN33" s="52"/>
+      <c r="AO33" s="52"/>
+      <c r="AP33" s="52"/>
+      <c r="AQ33" s="52"/>
+      <c r="AR33" s="52"/>
+      <c r="AS33" s="52"/>
+      <c r="AT33" s="52"/>
+      <c r="AU33" s="52"/>
+      <c r="AV33" s="52"/>
+      <c r="AW33" s="52"/>
+      <c r="AX33" s="52"/>
+      <c r="AY33" s="52"/>
+      <c r="AZ33" s="52"/>
+      <c r="BA33" s="52"/>
+      <c r="BB33" s="52"/>
+      <c r="BC33" s="52"/>
+      <c r="BD33" s="52"/>
+      <c r="BE33" s="52"/>
+      <c r="BF33" s="52"/>
+      <c r="BG33" s="52"/>
+      <c r="BH33" s="52"/>
+      <c r="BI33" s="52"/>
+      <c r="BJ33" s="52"/>
+      <c r="BK33" s="52"/>
+      <c r="BL33" s="52"/>
+      <c r="BM33" s="52"/>
+      <c r="BN33" s="52"/>
+      <c r="BO33" s="52"/>
+      <c r="BP33" s="52"/>
+      <c r="BQ33" s="52"/>
+      <c r="BR33" s="52"/>
+      <c r="BS33" s="52"/>
+      <c r="BT33" s="52"/>
+      <c r="BU33" s="52"/>
+      <c r="BV33" s="52"/>
+      <c r="BW33" s="52"/>
+      <c r="BX33" s="52"/>
+      <c r="BY33" s="52"/>
+      <c r="BZ33" s="52"/>
+      <c r="CA33" s="52"/>
+      <c r="CB33" s="52"/>
+      <c r="CC33" s="52"/>
+      <c r="CD33" s="52"/>
+    </row>
+    <row r="34" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -3811,8 +7285,82 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="52"/>
+      <c r="AB34" s="52"/>
+      <c r="AC34" s="52"/>
+      <c r="AD34" s="52"/>
+      <c r="AE34" s="52"/>
+      <c r="AF34" s="52"/>
+      <c r="AG34" s="52"/>
+      <c r="AH34" s="52"/>
+      <c r="AI34" s="52"/>
+      <c r="AJ34" s="52"/>
+      <c r="AK34" s="52"/>
+      <c r="AL34" s="52"/>
+      <c r="AM34" s="52"/>
+      <c r="AN34" s="52"/>
+      <c r="AO34" s="52"/>
+      <c r="AP34" s="52"/>
+      <c r="AQ34" s="52"/>
+      <c r="AR34" s="52"/>
+      <c r="AS34" s="52"/>
+      <c r="AT34" s="52"/>
+      <c r="AU34" s="52"/>
+      <c r="AV34" s="52"/>
+      <c r="AW34" s="52"/>
+      <c r="AX34" s="52"/>
+      <c r="AY34" s="52"/>
+      <c r="AZ34" s="52"/>
+      <c r="BA34" s="52"/>
+      <c r="BB34" s="52"/>
+      <c r="BC34" s="52"/>
+      <c r="BD34" s="52"/>
+      <c r="BE34" s="52"/>
+      <c r="BF34" s="52"/>
+      <c r="BG34" s="52"/>
+      <c r="BH34" s="52"/>
+      <c r="BI34" s="52"/>
+      <c r="BJ34" s="52"/>
+      <c r="BK34" s="52"/>
+      <c r="BL34" s="52"/>
+      <c r="BM34" s="52"/>
+      <c r="BN34" s="52"/>
+      <c r="BO34" s="52"/>
+      <c r="BP34" s="52"/>
+      <c r="BQ34" s="52"/>
+      <c r="BR34" s="52"/>
+      <c r="BS34" s="52"/>
+      <c r="BT34" s="52"/>
+      <c r="BU34" s="52"/>
+      <c r="BV34" s="52"/>
+      <c r="BW34" s="52"/>
+      <c r="BX34" s="52"/>
+      <c r="BY34" s="52"/>
+      <c r="BZ34" s="52"/>
+      <c r="CA34" s="52"/>
+      <c r="CB34" s="52"/>
+      <c r="CC34" s="52"/>
+      <c r="CD34" s="52"/>
+    </row>
+    <row r="35" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -3820,8 +7368,82 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="52"/>
+      <c r="AC35" s="52"/>
+      <c r="AD35" s="52"/>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="52"/>
+      <c r="AH35" s="52"/>
+      <c r="AI35" s="52"/>
+      <c r="AJ35" s="52"/>
+      <c r="AK35" s="52"/>
+      <c r="AL35" s="52"/>
+      <c r="AM35" s="52"/>
+      <c r="AN35" s="52"/>
+      <c r="AO35" s="52"/>
+      <c r="AP35" s="52"/>
+      <c r="AQ35" s="52"/>
+      <c r="AR35" s="52"/>
+      <c r="AS35" s="52"/>
+      <c r="AT35" s="52"/>
+      <c r="AU35" s="52"/>
+      <c r="AV35" s="52"/>
+      <c r="AW35" s="52"/>
+      <c r="AX35" s="52"/>
+      <c r="AY35" s="52"/>
+      <c r="AZ35" s="52"/>
+      <c r="BA35" s="52"/>
+      <c r="BB35" s="52"/>
+      <c r="BC35" s="52"/>
+      <c r="BD35" s="52"/>
+      <c r="BE35" s="52"/>
+      <c r="BF35" s="52"/>
+      <c r="BG35" s="52"/>
+      <c r="BH35" s="52"/>
+      <c r="BI35" s="52"/>
+      <c r="BJ35" s="52"/>
+      <c r="BK35" s="52"/>
+      <c r="BL35" s="52"/>
+      <c r="BM35" s="52"/>
+      <c r="BN35" s="52"/>
+      <c r="BO35" s="52"/>
+      <c r="BP35" s="52"/>
+      <c r="BQ35" s="52"/>
+      <c r="BR35" s="52"/>
+      <c r="BS35" s="52"/>
+      <c r="BT35" s="52"/>
+      <c r="BU35" s="52"/>
+      <c r="BV35" s="52"/>
+      <c r="BW35" s="52"/>
+      <c r="BX35" s="52"/>
+      <c r="BY35" s="52"/>
+      <c r="BZ35" s="52"/>
+      <c r="CA35" s="52"/>
+      <c r="CB35" s="52"/>
+      <c r="CC35" s="52"/>
+      <c r="CD35" s="52"/>
+    </row>
+    <row r="36" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -3830,7 +7452,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -3839,7 +7461,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -3848,7 +7470,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -3856,8 +7478,84 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I39" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="37"/>
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="37"/>
+      <c r="AE39" s="37"/>
+      <c r="AF39" s="37"/>
+      <c r="AG39" s="37"/>
+      <c r="AH39" s="37"/>
+      <c r="AI39" s="37"/>
+      <c r="AJ39" s="37"/>
+      <c r="AK39" s="37"/>
+      <c r="AL39" s="37"/>
+      <c r="AM39" s="37"/>
+      <c r="AN39" s="37"/>
+      <c r="AO39" s="37"/>
+      <c r="AP39" s="37"/>
+      <c r="AQ39" s="37"/>
+      <c r="AR39" s="37"/>
+      <c r="AS39" s="37"/>
+      <c r="AT39" s="37"/>
+      <c r="AU39" s="37"/>
+      <c r="AV39" s="37"/>
+      <c r="AW39" s="37"/>
+      <c r="AX39" s="37"/>
+      <c r="AY39" s="37"/>
+      <c r="AZ39" s="37"/>
+      <c r="BA39" s="37"/>
+      <c r="BB39" s="37"/>
+      <c r="BC39" s="37"/>
+      <c r="BD39" s="37"/>
+      <c r="BE39" s="37"/>
+      <c r="BF39" s="37"/>
+      <c r="BG39" s="37"/>
+      <c r="BH39" s="37"/>
+      <c r="BI39" s="37"/>
+      <c r="BJ39" s="37"/>
+      <c r="BK39" s="37"/>
+      <c r="BL39" s="37"/>
+      <c r="BM39" s="37"/>
+      <c r="BN39" s="37"/>
+      <c r="BO39" s="37"/>
+      <c r="BP39" s="37"/>
+      <c r="BQ39" s="37"/>
+      <c r="BR39" s="37"/>
+      <c r="BS39" s="37"/>
+      <c r="BT39" s="37"/>
+      <c r="BU39" s="37"/>
+      <c r="BV39" s="37"/>
+      <c r="BW39" s="37"/>
+      <c r="BX39" s="37"/>
+      <c r="BY39" s="37"/>
+      <c r="BZ39" s="37"/>
+      <c r="CA39" s="37"/>
+      <c r="CB39" s="37"/>
+      <c r="CC39" s="37"/>
+      <c r="CD39" s="38"/>
+    </row>
+    <row r="40" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -3865,8 +7563,82 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I40" s="39"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="40"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="40"/>
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="40"/>
+      <c r="AA40" s="40"/>
+      <c r="AB40" s="40"/>
+      <c r="AC40" s="40"/>
+      <c r="AD40" s="40"/>
+      <c r="AE40" s="40"/>
+      <c r="AF40" s="40"/>
+      <c r="AG40" s="40"/>
+      <c r="AH40" s="40"/>
+      <c r="AI40" s="40"/>
+      <c r="AJ40" s="40"/>
+      <c r="AK40" s="40"/>
+      <c r="AL40" s="40"/>
+      <c r="AM40" s="40"/>
+      <c r="AN40" s="40"/>
+      <c r="AO40" s="40"/>
+      <c r="AP40" s="40"/>
+      <c r="AQ40" s="40"/>
+      <c r="AR40" s="40"/>
+      <c r="AS40" s="40"/>
+      <c r="AT40" s="40"/>
+      <c r="AU40" s="40"/>
+      <c r="AV40" s="40"/>
+      <c r="AW40" s="40"/>
+      <c r="AX40" s="40"/>
+      <c r="AY40" s="40"/>
+      <c r="AZ40" s="40"/>
+      <c r="BA40" s="40"/>
+      <c r="BB40" s="40"/>
+      <c r="BC40" s="40"/>
+      <c r="BD40" s="40"/>
+      <c r="BE40" s="40"/>
+      <c r="BF40" s="40"/>
+      <c r="BG40" s="40"/>
+      <c r="BH40" s="40"/>
+      <c r="BI40" s="40"/>
+      <c r="BJ40" s="40"/>
+      <c r="BK40" s="40"/>
+      <c r="BL40" s="40"/>
+      <c r="BM40" s="40"/>
+      <c r="BN40" s="40"/>
+      <c r="BO40" s="40"/>
+      <c r="BP40" s="40"/>
+      <c r="BQ40" s="40"/>
+      <c r="BR40" s="40"/>
+      <c r="BS40" s="40"/>
+      <c r="BT40" s="40"/>
+      <c r="BU40" s="40"/>
+      <c r="BV40" s="40"/>
+      <c r="BW40" s="40"/>
+      <c r="BX40" s="40"/>
+      <c r="BY40" s="40"/>
+      <c r="BZ40" s="40"/>
+      <c r="CA40" s="40"/>
+      <c r="CB40" s="40"/>
+      <c r="CC40" s="40"/>
+      <c r="CD40" s="41"/>
+    </row>
+    <row r="41" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -3874,8 +7646,92 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I41" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="W41" s="42"/>
+      <c r="X41" s="42"/>
+      <c r="Y41" s="42"/>
+      <c r="Z41" s="42"/>
+      <c r="AA41" s="42"/>
+      <c r="AB41" s="42"/>
+      <c r="AC41" s="42"/>
+      <c r="AD41" s="42"/>
+      <c r="AE41" s="42"/>
+      <c r="AF41" s="42"/>
+      <c r="AG41" s="42"/>
+      <c r="AH41" s="42"/>
+      <c r="AI41" s="42"/>
+      <c r="AJ41" s="42"/>
+      <c r="AK41" s="42"/>
+      <c r="AL41" s="42"/>
+      <c r="AM41" s="42"/>
+      <c r="AN41" s="42"/>
+      <c r="AO41" s="42"/>
+      <c r="AP41" s="42"/>
+      <c r="AQ41" s="42"/>
+      <c r="AR41" s="42"/>
+      <c r="AS41" s="42"/>
+      <c r="AT41" s="42"/>
+      <c r="AU41" s="42"/>
+      <c r="AV41" s="42"/>
+      <c r="AW41" s="42"/>
+      <c r="AX41" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY41" s="42"/>
+      <c r="AZ41" s="42"/>
+      <c r="BA41" s="42"/>
+      <c r="BB41" s="42"/>
+      <c r="BC41" s="42"/>
+      <c r="BD41" s="42"/>
+      <c r="BE41" s="42"/>
+      <c r="BF41" s="42"/>
+      <c r="BG41" s="42"/>
+      <c r="BH41" s="42"/>
+      <c r="BI41" s="42"/>
+      <c r="BJ41" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="BK41" s="42"/>
+      <c r="BL41" s="42"/>
+      <c r="BM41" s="42"/>
+      <c r="BN41" s="42"/>
+      <c r="BO41" s="42"/>
+      <c r="BP41" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="BQ41" s="42"/>
+      <c r="BR41" s="42"/>
+      <c r="BS41" s="42"/>
+      <c r="BT41" s="42"/>
+      <c r="BU41" s="42"/>
+      <c r="BV41" s="42"/>
+      <c r="BW41" s="42"/>
+      <c r="BX41" s="42"/>
+      <c r="BY41" s="42"/>
+      <c r="BZ41" s="42"/>
+      <c r="CA41" s="42"/>
+      <c r="CB41" s="42"/>
+      <c r="CC41" s="42"/>
+      <c r="CD41" s="42"/>
+    </row>
+    <row r="42" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -3883,8 +7739,92 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I42" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="W42" s="48"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="48"/>
+      <c r="Z42" s="48"/>
+      <c r="AA42" s="48"/>
+      <c r="AB42" s="48"/>
+      <c r="AC42" s="48"/>
+      <c r="AD42" s="48"/>
+      <c r="AE42" s="48"/>
+      <c r="AF42" s="48"/>
+      <c r="AG42" s="48"/>
+      <c r="AH42" s="48"/>
+      <c r="AI42" s="48"/>
+      <c r="AJ42" s="48"/>
+      <c r="AK42" s="48"/>
+      <c r="AL42" s="48"/>
+      <c r="AM42" s="48"/>
+      <c r="AN42" s="48"/>
+      <c r="AO42" s="48"/>
+      <c r="AP42" s="48"/>
+      <c r="AQ42" s="48"/>
+      <c r="AR42" s="48"/>
+      <c r="AS42" s="48"/>
+      <c r="AT42" s="48"/>
+      <c r="AU42" s="48"/>
+      <c r="AV42" s="48"/>
+      <c r="AW42" s="48"/>
+      <c r="AX42" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY42" s="48"/>
+      <c r="AZ42" s="48"/>
+      <c r="BA42" s="48"/>
+      <c r="BB42" s="48"/>
+      <c r="BC42" s="48"/>
+      <c r="BD42" s="48"/>
+      <c r="BE42" s="48"/>
+      <c r="BF42" s="48"/>
+      <c r="BG42" s="48"/>
+      <c r="BH42" s="48"/>
+      <c r="BI42" s="48"/>
+      <c r="BJ42" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK42" s="48"/>
+      <c r="BL42" s="48"/>
+      <c r="BM42" s="48"/>
+      <c r="BN42" s="48"/>
+      <c r="BO42" s="48"/>
+      <c r="BP42" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="BQ42" s="48"/>
+      <c r="BR42" s="48"/>
+      <c r="BS42" s="48"/>
+      <c r="BT42" s="48"/>
+      <c r="BU42" s="48"/>
+      <c r="BV42" s="48"/>
+      <c r="BW42" s="48"/>
+      <c r="BX42" s="48"/>
+      <c r="BY42" s="48"/>
+      <c r="BZ42" s="48"/>
+      <c r="CA42" s="48"/>
+      <c r="CB42" s="48"/>
+      <c r="CC42" s="48"/>
+      <c r="CD42" s="48"/>
+    </row>
+    <row r="43" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -3892,8 +7832,82 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="44"/>
+      <c r="Z43" s="44"/>
+      <c r="AA43" s="44"/>
+      <c r="AB43" s="44"/>
+      <c r="AC43" s="44"/>
+      <c r="AD43" s="44"/>
+      <c r="AE43" s="44"/>
+      <c r="AF43" s="44"/>
+      <c r="AG43" s="44"/>
+      <c r="AH43" s="44"/>
+      <c r="AI43" s="44"/>
+      <c r="AJ43" s="44"/>
+      <c r="AK43" s="44"/>
+      <c r="AL43" s="44"/>
+      <c r="AM43" s="44"/>
+      <c r="AN43" s="44"/>
+      <c r="AO43" s="44"/>
+      <c r="AP43" s="44"/>
+      <c r="AQ43" s="44"/>
+      <c r="AR43" s="44"/>
+      <c r="AS43" s="44"/>
+      <c r="AT43" s="44"/>
+      <c r="AU43" s="44"/>
+      <c r="AV43" s="44"/>
+      <c r="AW43" s="44"/>
+      <c r="AX43" s="44"/>
+      <c r="AY43" s="44"/>
+      <c r="AZ43" s="44"/>
+      <c r="BA43" s="44"/>
+      <c r="BB43" s="44"/>
+      <c r="BC43" s="44"/>
+      <c r="BD43" s="44"/>
+      <c r="BE43" s="44"/>
+      <c r="BF43" s="44"/>
+      <c r="BG43" s="44"/>
+      <c r="BH43" s="44"/>
+      <c r="BI43" s="44"/>
+      <c r="BJ43" s="44"/>
+      <c r="BK43" s="44"/>
+      <c r="BL43" s="44"/>
+      <c r="BM43" s="44"/>
+      <c r="BN43" s="44"/>
+      <c r="BO43" s="44"/>
+      <c r="BP43" s="44"/>
+      <c r="BQ43" s="44"/>
+      <c r="BR43" s="44"/>
+      <c r="BS43" s="44"/>
+      <c r="BT43" s="44"/>
+      <c r="BU43" s="44"/>
+      <c r="BV43" s="44"/>
+      <c r="BW43" s="44"/>
+      <c r="BX43" s="44"/>
+      <c r="BY43" s="44"/>
+      <c r="BZ43" s="44"/>
+      <c r="CA43" s="44"/>
+      <c r="CB43" s="44"/>
+      <c r="CC43" s="44"/>
+      <c r="CD43" s="44"/>
+    </row>
+    <row r="44" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -3901,8 +7915,82 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="9"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="44"/>
+      <c r="X44" s="44"/>
+      <c r="Y44" s="44"/>
+      <c r="Z44" s="44"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="44"/>
+      <c r="AC44" s="44"/>
+      <c r="AD44" s="44"/>
+      <c r="AE44" s="44"/>
+      <c r="AF44" s="44"/>
+      <c r="AG44" s="44"/>
+      <c r="AH44" s="44"/>
+      <c r="AI44" s="44"/>
+      <c r="AJ44" s="44"/>
+      <c r="AK44" s="44"/>
+      <c r="AL44" s="44"/>
+      <c r="AM44" s="44"/>
+      <c r="AN44" s="44"/>
+      <c r="AO44" s="44"/>
+      <c r="AP44" s="44"/>
+      <c r="AQ44" s="44"/>
+      <c r="AR44" s="44"/>
+      <c r="AS44" s="44"/>
+      <c r="AT44" s="44"/>
+      <c r="AU44" s="44"/>
+      <c r="AV44" s="44"/>
+      <c r="AW44" s="44"/>
+      <c r="AX44" s="44"/>
+      <c r="AY44" s="44"/>
+      <c r="AZ44" s="44"/>
+      <c r="BA44" s="44"/>
+      <c r="BB44" s="44"/>
+      <c r="BC44" s="44"/>
+      <c r="BD44" s="44"/>
+      <c r="BE44" s="44"/>
+      <c r="BF44" s="44"/>
+      <c r="BG44" s="44"/>
+      <c r="BH44" s="44"/>
+      <c r="BI44" s="44"/>
+      <c r="BJ44" s="44"/>
+      <c r="BK44" s="44"/>
+      <c r="BL44" s="44"/>
+      <c r="BM44" s="44"/>
+      <c r="BN44" s="44"/>
+      <c r="BO44" s="44"/>
+      <c r="BP44" s="44"/>
+      <c r="BQ44" s="44"/>
+      <c r="BR44" s="44"/>
+      <c r="BS44" s="44"/>
+      <c r="BT44" s="44"/>
+      <c r="BU44" s="44"/>
+      <c r="BV44" s="44"/>
+      <c r="BW44" s="44"/>
+      <c r="BX44" s="44"/>
+      <c r="BY44" s="44"/>
+      <c r="BZ44" s="44"/>
+      <c r="CA44" s="44"/>
+      <c r="CB44" s="44"/>
+      <c r="CC44" s="44"/>
+      <c r="CD44" s="44"/>
+    </row>
+    <row r="45" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -3910,8 +7998,84 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I45" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="50"/>
+      <c r="W45" s="44"/>
+      <c r="X45" s="44"/>
+      <c r="Y45" s="44"/>
+      <c r="Z45" s="44"/>
+      <c r="AA45" s="44"/>
+      <c r="AB45" s="44"/>
+      <c r="AC45" s="44"/>
+      <c r="AD45" s="44"/>
+      <c r="AE45" s="44"/>
+      <c r="AF45" s="44"/>
+      <c r="AG45" s="44"/>
+      <c r="AH45" s="44"/>
+      <c r="AI45" s="44"/>
+      <c r="AJ45" s="44"/>
+      <c r="AK45" s="44"/>
+      <c r="AL45" s="44"/>
+      <c r="AM45" s="44"/>
+      <c r="AN45" s="44"/>
+      <c r="AO45" s="44"/>
+      <c r="AP45" s="44"/>
+      <c r="AQ45" s="44"/>
+      <c r="AR45" s="44"/>
+      <c r="AS45" s="44"/>
+      <c r="AT45" s="44"/>
+      <c r="AU45" s="44"/>
+      <c r="AV45" s="44"/>
+      <c r="AW45" s="44"/>
+      <c r="AX45" s="44"/>
+      <c r="AY45" s="44"/>
+      <c r="AZ45" s="44"/>
+      <c r="BA45" s="44"/>
+      <c r="BB45" s="44"/>
+      <c r="BC45" s="44"/>
+      <c r="BD45" s="44"/>
+      <c r="BE45" s="44"/>
+      <c r="BF45" s="44"/>
+      <c r="BG45" s="44"/>
+      <c r="BH45" s="44"/>
+      <c r="BI45" s="44"/>
+      <c r="BJ45" s="44"/>
+      <c r="BK45" s="44"/>
+      <c r="BL45" s="44"/>
+      <c r="BM45" s="44"/>
+      <c r="BN45" s="44"/>
+      <c r="BO45" s="44"/>
+      <c r="BP45" s="44"/>
+      <c r="BQ45" s="44"/>
+      <c r="BR45" s="44"/>
+      <c r="BS45" s="44"/>
+      <c r="BT45" s="44"/>
+      <c r="BU45" s="44"/>
+      <c r="BV45" s="44"/>
+      <c r="BW45" s="44"/>
+      <c r="BX45" s="44"/>
+      <c r="BY45" s="44"/>
+      <c r="BZ45" s="44"/>
+      <c r="CA45" s="44"/>
+      <c r="CB45" s="44"/>
+      <c r="CC45" s="44"/>
+      <c r="CD45" s="44"/>
+    </row>
+    <row r="46" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3919,8 +8083,82 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="9"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="44"/>
+      <c r="X46" s="44"/>
+      <c r="Y46" s="44"/>
+      <c r="Z46" s="44"/>
+      <c r="AA46" s="44"/>
+      <c r="AB46" s="44"/>
+      <c r="AC46" s="44"/>
+      <c r="AD46" s="44"/>
+      <c r="AE46" s="44"/>
+      <c r="AF46" s="44"/>
+      <c r="AG46" s="44"/>
+      <c r="AH46" s="44"/>
+      <c r="AI46" s="44"/>
+      <c r="AJ46" s="44"/>
+      <c r="AK46" s="44"/>
+      <c r="AL46" s="44"/>
+      <c r="AM46" s="44"/>
+      <c r="AN46" s="44"/>
+      <c r="AO46" s="44"/>
+      <c r="AP46" s="44"/>
+      <c r="AQ46" s="44"/>
+      <c r="AR46" s="44"/>
+      <c r="AS46" s="44"/>
+      <c r="AT46" s="44"/>
+      <c r="AU46" s="44"/>
+      <c r="AV46" s="44"/>
+      <c r="AW46" s="44"/>
+      <c r="AX46" s="44"/>
+      <c r="AY46" s="44"/>
+      <c r="AZ46" s="44"/>
+      <c r="BA46" s="44"/>
+      <c r="BB46" s="44"/>
+      <c r="BC46" s="44"/>
+      <c r="BD46" s="44"/>
+      <c r="BE46" s="44"/>
+      <c r="BF46" s="44"/>
+      <c r="BG46" s="44"/>
+      <c r="BH46" s="44"/>
+      <c r="BI46" s="44"/>
+      <c r="BJ46" s="44"/>
+      <c r="BK46" s="44"/>
+      <c r="BL46" s="44"/>
+      <c r="BM46" s="44"/>
+      <c r="BN46" s="44"/>
+      <c r="BO46" s="44"/>
+      <c r="BP46" s="44"/>
+      <c r="BQ46" s="44"/>
+      <c r="BR46" s="44"/>
+      <c r="BS46" s="44"/>
+      <c r="BT46" s="44"/>
+      <c r="BU46" s="44"/>
+      <c r="BV46" s="44"/>
+      <c r="BW46" s="44"/>
+      <c r="BX46" s="44"/>
+      <c r="BY46" s="44"/>
+      <c r="BZ46" s="44"/>
+      <c r="CA46" s="44"/>
+      <c r="CB46" s="44"/>
+      <c r="CC46" s="44"/>
+      <c r="CD46" s="44"/>
+    </row>
+    <row r="47" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -3928,8 +8166,86 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I47" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="W47" s="52"/>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="52"/>
+      <c r="AA47" s="52"/>
+      <c r="AB47" s="52"/>
+      <c r="AC47" s="52"/>
+      <c r="AD47" s="52"/>
+      <c r="AE47" s="52"/>
+      <c r="AF47" s="52"/>
+      <c r="AG47" s="52"/>
+      <c r="AH47" s="52"/>
+      <c r="AI47" s="52"/>
+      <c r="AJ47" s="52"/>
+      <c r="AK47" s="52"/>
+      <c r="AL47" s="52"/>
+      <c r="AM47" s="52"/>
+      <c r="AN47" s="52"/>
+      <c r="AO47" s="52"/>
+      <c r="AP47" s="52"/>
+      <c r="AQ47" s="52"/>
+      <c r="AR47" s="52"/>
+      <c r="AS47" s="52"/>
+      <c r="AT47" s="52"/>
+      <c r="AU47" s="52"/>
+      <c r="AV47" s="52"/>
+      <c r="AW47" s="52"/>
+      <c r="AX47" s="52"/>
+      <c r="AY47" s="52"/>
+      <c r="AZ47" s="52"/>
+      <c r="BA47" s="52"/>
+      <c r="BB47" s="52"/>
+      <c r="BC47" s="52"/>
+      <c r="BD47" s="52"/>
+      <c r="BE47" s="52"/>
+      <c r="BF47" s="52"/>
+      <c r="BG47" s="52"/>
+      <c r="BH47" s="52"/>
+      <c r="BI47" s="52"/>
+      <c r="BJ47" s="52"/>
+      <c r="BK47" s="52"/>
+      <c r="BL47" s="52"/>
+      <c r="BM47" s="52"/>
+      <c r="BN47" s="52"/>
+      <c r="BO47" s="52"/>
+      <c r="BP47" s="52"/>
+      <c r="BQ47" s="52"/>
+      <c r="BR47" s="52"/>
+      <c r="BS47" s="52"/>
+      <c r="BT47" s="52"/>
+      <c r="BU47" s="52"/>
+      <c r="BV47" s="52"/>
+      <c r="BW47" s="52"/>
+      <c r="BX47" s="52"/>
+      <c r="BY47" s="52"/>
+      <c r="BZ47" s="52"/>
+      <c r="CA47" s="52"/>
+      <c r="CB47" s="52"/>
+      <c r="CC47" s="52"/>
+      <c r="CD47" s="52"/>
+    </row>
+    <row r="48" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3937,8 +8253,82 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="52"/>
+      <c r="W48" s="52"/>
+      <c r="X48" s="52"/>
+      <c r="Y48" s="52"/>
+      <c r="Z48" s="52"/>
+      <c r="AA48" s="52"/>
+      <c r="AB48" s="52"/>
+      <c r="AC48" s="52"/>
+      <c r="AD48" s="52"/>
+      <c r="AE48" s="52"/>
+      <c r="AF48" s="52"/>
+      <c r="AG48" s="52"/>
+      <c r="AH48" s="52"/>
+      <c r="AI48" s="52"/>
+      <c r="AJ48" s="52"/>
+      <c r="AK48" s="52"/>
+      <c r="AL48" s="52"/>
+      <c r="AM48" s="52"/>
+      <c r="AN48" s="52"/>
+      <c r="AO48" s="52"/>
+      <c r="AP48" s="52"/>
+      <c r="AQ48" s="52"/>
+      <c r="AR48" s="52"/>
+      <c r="AS48" s="52"/>
+      <c r="AT48" s="52"/>
+      <c r="AU48" s="52"/>
+      <c r="AV48" s="52"/>
+      <c r="AW48" s="52"/>
+      <c r="AX48" s="52"/>
+      <c r="AY48" s="52"/>
+      <c r="AZ48" s="52"/>
+      <c r="BA48" s="52"/>
+      <c r="BB48" s="52"/>
+      <c r="BC48" s="52"/>
+      <c r="BD48" s="52"/>
+      <c r="BE48" s="52"/>
+      <c r="BF48" s="52"/>
+      <c r="BG48" s="52"/>
+      <c r="BH48" s="52"/>
+      <c r="BI48" s="52"/>
+      <c r="BJ48" s="52"/>
+      <c r="BK48" s="52"/>
+      <c r="BL48" s="52"/>
+      <c r="BM48" s="52"/>
+      <c r="BN48" s="52"/>
+      <c r="BO48" s="52"/>
+      <c r="BP48" s="52"/>
+      <c r="BQ48" s="52"/>
+      <c r="BR48" s="52"/>
+      <c r="BS48" s="52"/>
+      <c r="BT48" s="52"/>
+      <c r="BU48" s="52"/>
+      <c r="BV48" s="52"/>
+      <c r="BW48" s="52"/>
+      <c r="BX48" s="52"/>
+      <c r="BY48" s="52"/>
+      <c r="BZ48" s="52"/>
+      <c r="CA48" s="52"/>
+      <c r="CB48" s="52"/>
+      <c r="CC48" s="52"/>
+      <c r="CD48" s="52"/>
+    </row>
+    <row r="49" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="10"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -3946,8 +8336,82 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="12"/>
-    </row>
-    <row r="50" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="52"/>
+      <c r="W49" s="52"/>
+      <c r="X49" s="52"/>
+      <c r="Y49" s="52"/>
+      <c r="Z49" s="52"/>
+      <c r="AA49" s="52"/>
+      <c r="AB49" s="52"/>
+      <c r="AC49" s="52"/>
+      <c r="AD49" s="52"/>
+      <c r="AE49" s="52"/>
+      <c r="AF49" s="52"/>
+      <c r="AG49" s="52"/>
+      <c r="AH49" s="52"/>
+      <c r="AI49" s="52"/>
+      <c r="AJ49" s="52"/>
+      <c r="AK49" s="52"/>
+      <c r="AL49" s="52"/>
+      <c r="AM49" s="52"/>
+      <c r="AN49" s="52"/>
+      <c r="AO49" s="52"/>
+      <c r="AP49" s="52"/>
+      <c r="AQ49" s="52"/>
+      <c r="AR49" s="52"/>
+      <c r="AS49" s="52"/>
+      <c r="AT49" s="52"/>
+      <c r="AU49" s="52"/>
+      <c r="AV49" s="52"/>
+      <c r="AW49" s="52"/>
+      <c r="AX49" s="52"/>
+      <c r="AY49" s="52"/>
+      <c r="AZ49" s="52"/>
+      <c r="BA49" s="52"/>
+      <c r="BB49" s="52"/>
+      <c r="BC49" s="52"/>
+      <c r="BD49" s="52"/>
+      <c r="BE49" s="52"/>
+      <c r="BF49" s="52"/>
+      <c r="BG49" s="52"/>
+      <c r="BH49" s="52"/>
+      <c r="BI49" s="52"/>
+      <c r="BJ49" s="52"/>
+      <c r="BK49" s="52"/>
+      <c r="BL49" s="52"/>
+      <c r="BM49" s="52"/>
+      <c r="BN49" s="52"/>
+      <c r="BO49" s="52"/>
+      <c r="BP49" s="52"/>
+      <c r="BQ49" s="52"/>
+      <c r="BR49" s="52"/>
+      <c r="BS49" s="52"/>
+      <c r="BT49" s="52"/>
+      <c r="BU49" s="52"/>
+      <c r="BV49" s="52"/>
+      <c r="BW49" s="52"/>
+      <c r="BX49" s="52"/>
+      <c r="BY49" s="52"/>
+      <c r="BZ49" s="52"/>
+      <c r="CA49" s="52"/>
+      <c r="CB49" s="52"/>
+      <c r="CC49" s="52"/>
+      <c r="CD49" s="52"/>
+    </row>
+    <row r="50" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -3956,7 +8420,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="10"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -3965,14 +8429,1820 @@
       <c r="F51" s="11"/>
       <c r="G51" s="12"/>
     </row>
+    <row r="52" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="53" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I53" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="37"/>
+      <c r="AA53" s="37"/>
+      <c r="AB53" s="37"/>
+      <c r="AC53" s="37"/>
+      <c r="AD53" s="37"/>
+      <c r="AE53" s="37"/>
+      <c r="AF53" s="37"/>
+      <c r="AG53" s="37"/>
+      <c r="AH53" s="37"/>
+      <c r="AI53" s="37"/>
+      <c r="AJ53" s="37"/>
+      <c r="AK53" s="37"/>
+      <c r="AL53" s="37"/>
+      <c r="AM53" s="37"/>
+      <c r="AN53" s="37"/>
+      <c r="AO53" s="37"/>
+      <c r="AP53" s="37"/>
+      <c r="AQ53" s="37"/>
+      <c r="AR53" s="37"/>
+      <c r="AS53" s="37"/>
+      <c r="AT53" s="37"/>
+      <c r="AU53" s="37"/>
+      <c r="AV53" s="37"/>
+      <c r="AW53" s="37"/>
+      <c r="AX53" s="37"/>
+      <c r="AY53" s="37"/>
+      <c r="AZ53" s="37"/>
+      <c r="BA53" s="37"/>
+      <c r="BB53" s="37"/>
+      <c r="BC53" s="37"/>
+      <c r="BD53" s="37"/>
+      <c r="BE53" s="37"/>
+      <c r="BF53" s="37"/>
+      <c r="BG53" s="37"/>
+      <c r="BH53" s="37"/>
+      <c r="BI53" s="37"/>
+      <c r="BJ53" s="37"/>
+      <c r="BK53" s="37"/>
+      <c r="BL53" s="37"/>
+      <c r="BM53" s="37"/>
+      <c r="BN53" s="37"/>
+      <c r="BO53" s="37"/>
+      <c r="BP53" s="37"/>
+      <c r="BQ53" s="37"/>
+      <c r="BR53" s="37"/>
+      <c r="BS53" s="37"/>
+      <c r="BT53" s="37"/>
+      <c r="BU53" s="37"/>
+      <c r="BV53" s="37"/>
+      <c r="BW53" s="37"/>
+      <c r="BX53" s="37"/>
+      <c r="BY53" s="37"/>
+      <c r="BZ53" s="37"/>
+      <c r="CA53" s="37"/>
+      <c r="CB53" s="37"/>
+      <c r="CC53" s="37"/>
+      <c r="CD53" s="38"/>
+    </row>
+    <row r="54" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I54" s="39"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="40"/>
+      <c r="AA54" s="40"/>
+      <c r="AB54" s="40"/>
+      <c r="AC54" s="40"/>
+      <c r="AD54" s="40"/>
+      <c r="AE54" s="40"/>
+      <c r="AF54" s="40"/>
+      <c r="AG54" s="40"/>
+      <c r="AH54" s="40"/>
+      <c r="AI54" s="40"/>
+      <c r="AJ54" s="40"/>
+      <c r="AK54" s="40"/>
+      <c r="AL54" s="40"/>
+      <c r="AM54" s="40"/>
+      <c r="AN54" s="40"/>
+      <c r="AO54" s="40"/>
+      <c r="AP54" s="40"/>
+      <c r="AQ54" s="40"/>
+      <c r="AR54" s="40"/>
+      <c r="AS54" s="40"/>
+      <c r="AT54" s="40"/>
+      <c r="AU54" s="40"/>
+      <c r="AV54" s="40"/>
+      <c r="AW54" s="40"/>
+      <c r="AX54" s="40"/>
+      <c r="AY54" s="40"/>
+      <c r="AZ54" s="40"/>
+      <c r="BA54" s="40"/>
+      <c r="BB54" s="40"/>
+      <c r="BC54" s="40"/>
+      <c r="BD54" s="40"/>
+      <c r="BE54" s="40"/>
+      <c r="BF54" s="40"/>
+      <c r="BG54" s="40"/>
+      <c r="BH54" s="40"/>
+      <c r="BI54" s="40"/>
+      <c r="BJ54" s="40"/>
+      <c r="BK54" s="40"/>
+      <c r="BL54" s="40"/>
+      <c r="BM54" s="40"/>
+      <c r="BN54" s="40"/>
+      <c r="BO54" s="40"/>
+      <c r="BP54" s="40"/>
+      <c r="BQ54" s="40"/>
+      <c r="BR54" s="40"/>
+      <c r="BS54" s="40"/>
+      <c r="BT54" s="40"/>
+      <c r="BU54" s="40"/>
+      <c r="BV54" s="40"/>
+      <c r="BW54" s="40"/>
+      <c r="BX54" s="40"/>
+      <c r="BY54" s="40"/>
+      <c r="BZ54" s="40"/>
+      <c r="CA54" s="40"/>
+      <c r="CB54" s="40"/>
+      <c r="CC54" s="40"/>
+      <c r="CD54" s="41"/>
+    </row>
+    <row r="55" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I55" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="42"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="42"/>
+      <c r="V55" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="W55" s="42"/>
+      <c r="X55" s="42"/>
+      <c r="Y55" s="42"/>
+      <c r="Z55" s="42"/>
+      <c r="AA55" s="42"/>
+      <c r="AB55" s="42"/>
+      <c r="AC55" s="42"/>
+      <c r="AD55" s="42"/>
+      <c r="AE55" s="42"/>
+      <c r="AF55" s="42"/>
+      <c r="AG55" s="42"/>
+      <c r="AH55" s="42"/>
+      <c r="AI55" s="42"/>
+      <c r="AJ55" s="42"/>
+      <c r="AK55" s="42"/>
+      <c r="AL55" s="42"/>
+      <c r="AM55" s="42"/>
+      <c r="AN55" s="42"/>
+      <c r="AO55" s="42"/>
+      <c r="AP55" s="42"/>
+      <c r="AQ55" s="42"/>
+      <c r="AR55" s="42"/>
+      <c r="AS55" s="42"/>
+      <c r="AT55" s="42"/>
+      <c r="AU55" s="42"/>
+      <c r="AV55" s="42"/>
+      <c r="AW55" s="42"/>
+      <c r="AX55" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY55" s="42"/>
+      <c r="AZ55" s="42"/>
+      <c r="BA55" s="42"/>
+      <c r="BB55" s="42"/>
+      <c r="BC55" s="42"/>
+      <c r="BD55" s="42"/>
+      <c r="BE55" s="42"/>
+      <c r="BF55" s="42"/>
+      <c r="BG55" s="42"/>
+      <c r="BH55" s="42"/>
+      <c r="BI55" s="42"/>
+      <c r="BJ55" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="BK55" s="42"/>
+      <c r="BL55" s="42"/>
+      <c r="BM55" s="42"/>
+      <c r="BN55" s="42"/>
+      <c r="BO55" s="42"/>
+      <c r="BP55" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="BQ55" s="42"/>
+      <c r="BR55" s="42"/>
+      <c r="BS55" s="42"/>
+      <c r="BT55" s="42"/>
+      <c r="BU55" s="42"/>
+      <c r="BV55" s="42"/>
+      <c r="BW55" s="42"/>
+      <c r="BX55" s="42"/>
+      <c r="BY55" s="42"/>
+      <c r="BZ55" s="42"/>
+      <c r="CA55" s="42"/>
+      <c r="CB55" s="42"/>
+      <c r="CC55" s="42"/>
+      <c r="CD55" s="42"/>
+    </row>
+    <row r="56" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I56" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="48"/>
+      <c r="S56" s="48"/>
+      <c r="T56" s="48"/>
+      <c r="U56" s="48"/>
+      <c r="V56" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="W56" s="48"/>
+      <c r="X56" s="48"/>
+      <c r="Y56" s="48"/>
+      <c r="Z56" s="48"/>
+      <c r="AA56" s="48"/>
+      <c r="AB56" s="48"/>
+      <c r="AC56" s="48"/>
+      <c r="AD56" s="48"/>
+      <c r="AE56" s="48"/>
+      <c r="AF56" s="48"/>
+      <c r="AG56" s="48"/>
+      <c r="AH56" s="48"/>
+      <c r="AI56" s="48"/>
+      <c r="AJ56" s="48"/>
+      <c r="AK56" s="48"/>
+      <c r="AL56" s="48"/>
+      <c r="AM56" s="48"/>
+      <c r="AN56" s="48"/>
+      <c r="AO56" s="48"/>
+      <c r="AP56" s="48"/>
+      <c r="AQ56" s="48"/>
+      <c r="AR56" s="48"/>
+      <c r="AS56" s="48"/>
+      <c r="AT56" s="48"/>
+      <c r="AU56" s="48"/>
+      <c r="AV56" s="48"/>
+      <c r="AW56" s="48"/>
+      <c r="AX56" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY56" s="48"/>
+      <c r="AZ56" s="48"/>
+      <c r="BA56" s="48"/>
+      <c r="BB56" s="48"/>
+      <c r="BC56" s="48"/>
+      <c r="BD56" s="48"/>
+      <c r="BE56" s="48"/>
+      <c r="BF56" s="48"/>
+      <c r="BG56" s="48"/>
+      <c r="BH56" s="48"/>
+      <c r="BI56" s="48"/>
+      <c r="BJ56" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK56" s="48"/>
+      <c r="BL56" s="48"/>
+      <c r="BM56" s="48"/>
+      <c r="BN56" s="48"/>
+      <c r="BO56" s="48"/>
+      <c r="BP56" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="BQ56" s="48"/>
+      <c r="BR56" s="48"/>
+      <c r="BS56" s="48"/>
+      <c r="BT56" s="48"/>
+      <c r="BU56" s="48"/>
+      <c r="BV56" s="48"/>
+      <c r="BW56" s="48"/>
+      <c r="BX56" s="48"/>
+      <c r="BY56" s="48"/>
+      <c r="BZ56" s="48"/>
+      <c r="CA56" s="48"/>
+      <c r="CB56" s="48"/>
+      <c r="CC56" s="48"/>
+      <c r="CD56" s="48"/>
+    </row>
+    <row r="57" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="44"/>
+      <c r="R57" s="44"/>
+      <c r="S57" s="44"/>
+      <c r="T57" s="44"/>
+      <c r="U57" s="44"/>
+      <c r="V57" s="44"/>
+      <c r="W57" s="44"/>
+      <c r="X57" s="44"/>
+      <c r="Y57" s="44"/>
+      <c r="Z57" s="44"/>
+      <c r="AA57" s="44"/>
+      <c r="AB57" s="44"/>
+      <c r="AC57" s="44"/>
+      <c r="AD57" s="44"/>
+      <c r="AE57" s="44"/>
+      <c r="AF57" s="44"/>
+      <c r="AG57" s="44"/>
+      <c r="AH57" s="44"/>
+      <c r="AI57" s="44"/>
+      <c r="AJ57" s="44"/>
+      <c r="AK57" s="44"/>
+      <c r="AL57" s="44"/>
+      <c r="AM57" s="44"/>
+      <c r="AN57" s="44"/>
+      <c r="AO57" s="44"/>
+      <c r="AP57" s="44"/>
+      <c r="AQ57" s="44"/>
+      <c r="AR57" s="44"/>
+      <c r="AS57" s="44"/>
+      <c r="AT57" s="44"/>
+      <c r="AU57" s="44"/>
+      <c r="AV57" s="44"/>
+      <c r="AW57" s="44"/>
+      <c r="AX57" s="44"/>
+      <c r="AY57" s="44"/>
+      <c r="AZ57" s="44"/>
+      <c r="BA57" s="44"/>
+      <c r="BB57" s="44"/>
+      <c r="BC57" s="44"/>
+      <c r="BD57" s="44"/>
+      <c r="BE57" s="44"/>
+      <c r="BF57" s="44"/>
+      <c r="BG57" s="44"/>
+      <c r="BH57" s="44"/>
+      <c r="BI57" s="44"/>
+      <c r="BJ57" s="44"/>
+      <c r="BK57" s="44"/>
+      <c r="BL57" s="44"/>
+      <c r="BM57" s="44"/>
+      <c r="BN57" s="44"/>
+      <c r="BO57" s="44"/>
+      <c r="BP57" s="44"/>
+      <c r="BQ57" s="44"/>
+      <c r="BR57" s="44"/>
+      <c r="BS57" s="44"/>
+      <c r="BT57" s="44"/>
+      <c r="BU57" s="44"/>
+      <c r="BV57" s="44"/>
+      <c r="BW57" s="44"/>
+      <c r="BX57" s="44"/>
+      <c r="BY57" s="44"/>
+      <c r="BZ57" s="44"/>
+      <c r="CA57" s="44"/>
+      <c r="CB57" s="44"/>
+      <c r="CC57" s="44"/>
+      <c r="CD57" s="44"/>
+    </row>
+    <row r="58" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="44"/>
+      <c r="V58" s="44"/>
+      <c r="W58" s="44"/>
+      <c r="X58" s="44"/>
+      <c r="Y58" s="44"/>
+      <c r="Z58" s="44"/>
+      <c r="AA58" s="44"/>
+      <c r="AB58" s="44"/>
+      <c r="AC58" s="44"/>
+      <c r="AD58" s="44"/>
+      <c r="AE58" s="44"/>
+      <c r="AF58" s="44"/>
+      <c r="AG58" s="44"/>
+      <c r="AH58" s="44"/>
+      <c r="AI58" s="44"/>
+      <c r="AJ58" s="44"/>
+      <c r="AK58" s="44"/>
+      <c r="AL58" s="44"/>
+      <c r="AM58" s="44"/>
+      <c r="AN58" s="44"/>
+      <c r="AO58" s="44"/>
+      <c r="AP58" s="44"/>
+      <c r="AQ58" s="44"/>
+      <c r="AR58" s="44"/>
+      <c r="AS58" s="44"/>
+      <c r="AT58" s="44"/>
+      <c r="AU58" s="44"/>
+      <c r="AV58" s="44"/>
+      <c r="AW58" s="44"/>
+      <c r="AX58" s="44"/>
+      <c r="AY58" s="44"/>
+      <c r="AZ58" s="44"/>
+      <c r="BA58" s="44"/>
+      <c r="BB58" s="44"/>
+      <c r="BC58" s="44"/>
+      <c r="BD58" s="44"/>
+      <c r="BE58" s="44"/>
+      <c r="BF58" s="44"/>
+      <c r="BG58" s="44"/>
+      <c r="BH58" s="44"/>
+      <c r="BI58" s="44"/>
+      <c r="BJ58" s="44"/>
+      <c r="BK58" s="44"/>
+      <c r="BL58" s="44"/>
+      <c r="BM58" s="44"/>
+      <c r="BN58" s="44"/>
+      <c r="BO58" s="44"/>
+      <c r="BP58" s="44"/>
+      <c r="BQ58" s="44"/>
+      <c r="BR58" s="44"/>
+      <c r="BS58" s="44"/>
+      <c r="BT58" s="44"/>
+      <c r="BU58" s="44"/>
+      <c r="BV58" s="44"/>
+      <c r="BW58" s="44"/>
+      <c r="BX58" s="44"/>
+      <c r="BY58" s="44"/>
+      <c r="BZ58" s="44"/>
+      <c r="CA58" s="44"/>
+      <c r="CB58" s="44"/>
+      <c r="CC58" s="44"/>
+      <c r="CD58" s="44"/>
+    </row>
+    <row r="59" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I59" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="44"/>
+      <c r="S59" s="44"/>
+      <c r="T59" s="44"/>
+      <c r="U59" s="44"/>
+      <c r="V59" s="50"/>
+      <c r="W59" s="44"/>
+      <c r="X59" s="44"/>
+      <c r="Y59" s="44"/>
+      <c r="Z59" s="44"/>
+      <c r="AA59" s="44"/>
+      <c r="AB59" s="44"/>
+      <c r="AC59" s="44"/>
+      <c r="AD59" s="44"/>
+      <c r="AE59" s="44"/>
+      <c r="AF59" s="44"/>
+      <c r="AG59" s="44"/>
+      <c r="AH59" s="44"/>
+      <c r="AI59" s="44"/>
+      <c r="AJ59" s="44"/>
+      <c r="AK59" s="44"/>
+      <c r="AL59" s="44"/>
+      <c r="AM59" s="44"/>
+      <c r="AN59" s="44"/>
+      <c r="AO59" s="44"/>
+      <c r="AP59" s="44"/>
+      <c r="AQ59" s="44"/>
+      <c r="AR59" s="44"/>
+      <c r="AS59" s="44"/>
+      <c r="AT59" s="44"/>
+      <c r="AU59" s="44"/>
+      <c r="AV59" s="44"/>
+      <c r="AW59" s="44"/>
+      <c r="AX59" s="44"/>
+      <c r="AY59" s="44"/>
+      <c r="AZ59" s="44"/>
+      <c r="BA59" s="44"/>
+      <c r="BB59" s="44"/>
+      <c r="BC59" s="44"/>
+      <c r="BD59" s="44"/>
+      <c r="BE59" s="44"/>
+      <c r="BF59" s="44"/>
+      <c r="BG59" s="44"/>
+      <c r="BH59" s="44"/>
+      <c r="BI59" s="44"/>
+      <c r="BJ59" s="44"/>
+      <c r="BK59" s="44"/>
+      <c r="BL59" s="44"/>
+      <c r="BM59" s="44"/>
+      <c r="BN59" s="44"/>
+      <c r="BO59" s="44"/>
+      <c r="BP59" s="44"/>
+      <c r="BQ59" s="44"/>
+      <c r="BR59" s="44"/>
+      <c r="BS59" s="44"/>
+      <c r="BT59" s="44"/>
+      <c r="BU59" s="44"/>
+      <c r="BV59" s="44"/>
+      <c r="BW59" s="44"/>
+      <c r="BX59" s="44"/>
+      <c r="BY59" s="44"/>
+      <c r="BZ59" s="44"/>
+      <c r="CA59" s="44"/>
+      <c r="CB59" s="44"/>
+      <c r="CC59" s="44"/>
+      <c r="CD59" s="44"/>
+    </row>
+    <row r="60" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="44"/>
+      <c r="R60" s="44"/>
+      <c r="S60" s="44"/>
+      <c r="T60" s="44"/>
+      <c r="U60" s="44"/>
+      <c r="V60" s="44"/>
+      <c r="W60" s="44"/>
+      <c r="X60" s="44"/>
+      <c r="Y60" s="44"/>
+      <c r="Z60" s="44"/>
+      <c r="AA60" s="44"/>
+      <c r="AB60" s="44"/>
+      <c r="AC60" s="44"/>
+      <c r="AD60" s="44"/>
+      <c r="AE60" s="44"/>
+      <c r="AF60" s="44"/>
+      <c r="AG60" s="44"/>
+      <c r="AH60" s="44"/>
+      <c r="AI60" s="44"/>
+      <c r="AJ60" s="44"/>
+      <c r="AK60" s="44"/>
+      <c r="AL60" s="44"/>
+      <c r="AM60" s="44"/>
+      <c r="AN60" s="44"/>
+      <c r="AO60" s="44"/>
+      <c r="AP60" s="44"/>
+      <c r="AQ60" s="44"/>
+      <c r="AR60" s="44"/>
+      <c r="AS60" s="44"/>
+      <c r="AT60" s="44"/>
+      <c r="AU60" s="44"/>
+      <c r="AV60" s="44"/>
+      <c r="AW60" s="44"/>
+      <c r="AX60" s="44"/>
+      <c r="AY60" s="44"/>
+      <c r="AZ60" s="44"/>
+      <c r="BA60" s="44"/>
+      <c r="BB60" s="44"/>
+      <c r="BC60" s="44"/>
+      <c r="BD60" s="44"/>
+      <c r="BE60" s="44"/>
+      <c r="BF60" s="44"/>
+      <c r="BG60" s="44"/>
+      <c r="BH60" s="44"/>
+      <c r="BI60" s="44"/>
+      <c r="BJ60" s="44"/>
+      <c r="BK60" s="44"/>
+      <c r="BL60" s="44"/>
+      <c r="BM60" s="44"/>
+      <c r="BN60" s="44"/>
+      <c r="BO60" s="44"/>
+      <c r="BP60" s="44"/>
+      <c r="BQ60" s="44"/>
+      <c r="BR60" s="44"/>
+      <c r="BS60" s="44"/>
+      <c r="BT60" s="44"/>
+      <c r="BU60" s="44"/>
+      <c r="BV60" s="44"/>
+      <c r="BW60" s="44"/>
+      <c r="BX60" s="44"/>
+      <c r="BY60" s="44"/>
+      <c r="BZ60" s="44"/>
+      <c r="CA60" s="44"/>
+      <c r="CB60" s="44"/>
+      <c r="CC60" s="44"/>
+      <c r="CD60" s="44"/>
+    </row>
+    <row r="61" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I61" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="44"/>
+      <c r="N61" s="44"/>
+      <c r="O61" s="44"/>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="44"/>
+      <c r="R61" s="44"/>
+      <c r="S61" s="44"/>
+      <c r="T61" s="44"/>
+      <c r="U61" s="44"/>
+      <c r="V61" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="W61" s="52"/>
+      <c r="X61" s="52"/>
+      <c r="Y61" s="52"/>
+      <c r="Z61" s="52"/>
+      <c r="AA61" s="52"/>
+      <c r="AB61" s="52"/>
+      <c r="AC61" s="52"/>
+      <c r="AD61" s="52"/>
+      <c r="AE61" s="52"/>
+      <c r="AF61" s="52"/>
+      <c r="AG61" s="52"/>
+      <c r="AH61" s="52"/>
+      <c r="AI61" s="52"/>
+      <c r="AJ61" s="52"/>
+      <c r="AK61" s="52"/>
+      <c r="AL61" s="52"/>
+      <c r="AM61" s="52"/>
+      <c r="AN61" s="52"/>
+      <c r="AO61" s="52"/>
+      <c r="AP61" s="52"/>
+      <c r="AQ61" s="52"/>
+      <c r="AR61" s="52"/>
+      <c r="AS61" s="52"/>
+      <c r="AT61" s="52"/>
+      <c r="AU61" s="52"/>
+      <c r="AV61" s="52"/>
+      <c r="AW61" s="52"/>
+      <c r="AX61" s="52"/>
+      <c r="AY61" s="52"/>
+      <c r="AZ61" s="52"/>
+      <c r="BA61" s="52"/>
+      <c r="BB61" s="52"/>
+      <c r="BC61" s="52"/>
+      <c r="BD61" s="52"/>
+      <c r="BE61" s="52"/>
+      <c r="BF61" s="52"/>
+      <c r="BG61" s="52"/>
+      <c r="BH61" s="52"/>
+      <c r="BI61" s="52"/>
+      <c r="BJ61" s="52"/>
+      <c r="BK61" s="52"/>
+      <c r="BL61" s="52"/>
+      <c r="BM61" s="52"/>
+      <c r="BN61" s="52"/>
+      <c r="BO61" s="52"/>
+      <c r="BP61" s="52"/>
+      <c r="BQ61" s="52"/>
+      <c r="BR61" s="52"/>
+      <c r="BS61" s="52"/>
+      <c r="BT61" s="52"/>
+      <c r="BU61" s="52"/>
+      <c r="BV61" s="52"/>
+      <c r="BW61" s="52"/>
+      <c r="BX61" s="52"/>
+      <c r="BY61" s="52"/>
+      <c r="BZ61" s="52"/>
+      <c r="CA61" s="52"/>
+      <c r="CB61" s="52"/>
+      <c r="CC61" s="52"/>
+      <c r="CD61" s="52"/>
+    </row>
+    <row r="62" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="44"/>
+      <c r="P62" s="44"/>
+      <c r="Q62" s="44"/>
+      <c r="R62" s="44"/>
+      <c r="S62" s="44"/>
+      <c r="T62" s="44"/>
+      <c r="U62" s="44"/>
+      <c r="V62" s="52"/>
+      <c r="W62" s="52"/>
+      <c r="X62" s="52"/>
+      <c r="Y62" s="52"/>
+      <c r="Z62" s="52"/>
+      <c r="AA62" s="52"/>
+      <c r="AB62" s="52"/>
+      <c r="AC62" s="52"/>
+      <c r="AD62" s="52"/>
+      <c r="AE62" s="52"/>
+      <c r="AF62" s="52"/>
+      <c r="AG62" s="52"/>
+      <c r="AH62" s="52"/>
+      <c r="AI62" s="52"/>
+      <c r="AJ62" s="52"/>
+      <c r="AK62" s="52"/>
+      <c r="AL62" s="52"/>
+      <c r="AM62" s="52"/>
+      <c r="AN62" s="52"/>
+      <c r="AO62" s="52"/>
+      <c r="AP62" s="52"/>
+      <c r="AQ62" s="52"/>
+      <c r="AR62" s="52"/>
+      <c r="AS62" s="52"/>
+      <c r="AT62" s="52"/>
+      <c r="AU62" s="52"/>
+      <c r="AV62" s="52"/>
+      <c r="AW62" s="52"/>
+      <c r="AX62" s="52"/>
+      <c r="AY62" s="52"/>
+      <c r="AZ62" s="52"/>
+      <c r="BA62" s="52"/>
+      <c r="BB62" s="52"/>
+      <c r="BC62" s="52"/>
+      <c r="BD62" s="52"/>
+      <c r="BE62" s="52"/>
+      <c r="BF62" s="52"/>
+      <c r="BG62" s="52"/>
+      <c r="BH62" s="52"/>
+      <c r="BI62" s="52"/>
+      <c r="BJ62" s="52"/>
+      <c r="BK62" s="52"/>
+      <c r="BL62" s="52"/>
+      <c r="BM62" s="52"/>
+      <c r="BN62" s="52"/>
+      <c r="BO62" s="52"/>
+      <c r="BP62" s="52"/>
+      <c r="BQ62" s="52"/>
+      <c r="BR62" s="52"/>
+      <c r="BS62" s="52"/>
+      <c r="BT62" s="52"/>
+      <c r="BU62" s="52"/>
+      <c r="BV62" s="52"/>
+      <c r="BW62" s="52"/>
+      <c r="BX62" s="52"/>
+      <c r="BY62" s="52"/>
+      <c r="BZ62" s="52"/>
+      <c r="CA62" s="52"/>
+      <c r="CB62" s="52"/>
+      <c r="CC62" s="52"/>
+      <c r="CD62" s="52"/>
+    </row>
+    <row r="63" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="44"/>
+      <c r="R63" s="44"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="44"/>
+      <c r="U63" s="44"/>
+      <c r="V63" s="52"/>
+      <c r="W63" s="52"/>
+      <c r="X63" s="52"/>
+      <c r="Y63" s="52"/>
+      <c r="Z63" s="52"/>
+      <c r="AA63" s="52"/>
+      <c r="AB63" s="52"/>
+      <c r="AC63" s="52"/>
+      <c r="AD63" s="52"/>
+      <c r="AE63" s="52"/>
+      <c r="AF63" s="52"/>
+      <c r="AG63" s="52"/>
+      <c r="AH63" s="52"/>
+      <c r="AI63" s="52"/>
+      <c r="AJ63" s="52"/>
+      <c r="AK63" s="52"/>
+      <c r="AL63" s="52"/>
+      <c r="AM63" s="52"/>
+      <c r="AN63" s="52"/>
+      <c r="AO63" s="52"/>
+      <c r="AP63" s="52"/>
+      <c r="AQ63" s="52"/>
+      <c r="AR63" s="52"/>
+      <c r="AS63" s="52"/>
+      <c r="AT63" s="52"/>
+      <c r="AU63" s="52"/>
+      <c r="AV63" s="52"/>
+      <c r="AW63" s="52"/>
+      <c r="AX63" s="52"/>
+      <c r="AY63" s="52"/>
+      <c r="AZ63" s="52"/>
+      <c r="BA63" s="52"/>
+      <c r="BB63" s="52"/>
+      <c r="BC63" s="52"/>
+      <c r="BD63" s="52"/>
+      <c r="BE63" s="52"/>
+      <c r="BF63" s="52"/>
+      <c r="BG63" s="52"/>
+      <c r="BH63" s="52"/>
+      <c r="BI63" s="52"/>
+      <c r="BJ63" s="52"/>
+      <c r="BK63" s="52"/>
+      <c r="BL63" s="52"/>
+      <c r="BM63" s="52"/>
+      <c r="BN63" s="52"/>
+      <c r="BO63" s="52"/>
+      <c r="BP63" s="52"/>
+      <c r="BQ63" s="52"/>
+      <c r="BR63" s="52"/>
+      <c r="BS63" s="52"/>
+      <c r="BT63" s="52"/>
+      <c r="BU63" s="52"/>
+      <c r="BV63" s="52"/>
+      <c r="BW63" s="52"/>
+      <c r="BX63" s="52"/>
+      <c r="BY63" s="52"/>
+      <c r="BZ63" s="52"/>
+      <c r="CA63" s="52"/>
+      <c r="CB63" s="52"/>
+      <c r="CC63" s="52"/>
+      <c r="CD63" s="52"/>
+    </row>
+    <row r="66" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="67" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I67" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
+      <c r="Y67" s="37"/>
+      <c r="Z67" s="37"/>
+      <c r="AA67" s="37"/>
+      <c r="AB67" s="37"/>
+      <c r="AC67" s="37"/>
+      <c r="AD67" s="37"/>
+      <c r="AE67" s="37"/>
+      <c r="AF67" s="37"/>
+      <c r="AG67" s="37"/>
+      <c r="AH67" s="37"/>
+      <c r="AI67" s="37"/>
+      <c r="AJ67" s="37"/>
+      <c r="AK67" s="37"/>
+      <c r="AL67" s="37"/>
+      <c r="AM67" s="37"/>
+      <c r="AN67" s="37"/>
+      <c r="AO67" s="37"/>
+      <c r="AP67" s="37"/>
+      <c r="AQ67" s="37"/>
+      <c r="AR67" s="37"/>
+      <c r="AS67" s="37"/>
+      <c r="AT67" s="37"/>
+      <c r="AU67" s="37"/>
+      <c r="AV67" s="37"/>
+      <c r="AW67" s="37"/>
+      <c r="AX67" s="37"/>
+      <c r="AY67" s="37"/>
+      <c r="AZ67" s="37"/>
+      <c r="BA67" s="37"/>
+      <c r="BB67" s="37"/>
+      <c r="BC67" s="37"/>
+      <c r="BD67" s="37"/>
+      <c r="BE67" s="37"/>
+      <c r="BF67" s="37"/>
+      <c r="BG67" s="37"/>
+      <c r="BH67" s="37"/>
+      <c r="BI67" s="37"/>
+      <c r="BJ67" s="37"/>
+      <c r="BK67" s="37"/>
+      <c r="BL67" s="37"/>
+      <c r="BM67" s="37"/>
+      <c r="BN67" s="37"/>
+      <c r="BO67" s="37"/>
+      <c r="BP67" s="37"/>
+      <c r="BQ67" s="37"/>
+      <c r="BR67" s="37"/>
+      <c r="BS67" s="37"/>
+      <c r="BT67" s="37"/>
+      <c r="BU67" s="37"/>
+      <c r="BV67" s="37"/>
+      <c r="BW67" s="37"/>
+      <c r="BX67" s="37"/>
+      <c r="BY67" s="37"/>
+      <c r="BZ67" s="37"/>
+      <c r="CA67" s="37"/>
+      <c r="CB67" s="37"/>
+      <c r="CC67" s="37"/>
+      <c r="CD67" s="38"/>
+    </row>
+    <row r="68" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I68" s="39"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="40"/>
+      <c r="T68" s="40"/>
+      <c r="U68" s="40"/>
+      <c r="V68" s="40"/>
+      <c r="W68" s="40"/>
+      <c r="X68" s="40"/>
+      <c r="Y68" s="40"/>
+      <c r="Z68" s="40"/>
+      <c r="AA68" s="40"/>
+      <c r="AB68" s="40"/>
+      <c r="AC68" s="40"/>
+      <c r="AD68" s="40"/>
+      <c r="AE68" s="40"/>
+      <c r="AF68" s="40"/>
+      <c r="AG68" s="40"/>
+      <c r="AH68" s="40"/>
+      <c r="AI68" s="40"/>
+      <c r="AJ68" s="40"/>
+      <c r="AK68" s="40"/>
+      <c r="AL68" s="40"/>
+      <c r="AM68" s="40"/>
+      <c r="AN68" s="40"/>
+      <c r="AO68" s="40"/>
+      <c r="AP68" s="40"/>
+      <c r="AQ68" s="40"/>
+      <c r="AR68" s="40"/>
+      <c r="AS68" s="40"/>
+      <c r="AT68" s="40"/>
+      <c r="AU68" s="40"/>
+      <c r="AV68" s="40"/>
+      <c r="AW68" s="40"/>
+      <c r="AX68" s="40"/>
+      <c r="AY68" s="40"/>
+      <c r="AZ68" s="40"/>
+      <c r="BA68" s="40"/>
+      <c r="BB68" s="40"/>
+      <c r="BC68" s="40"/>
+      <c r="BD68" s="40"/>
+      <c r="BE68" s="40"/>
+      <c r="BF68" s="40"/>
+      <c r="BG68" s="40"/>
+      <c r="BH68" s="40"/>
+      <c r="BI68" s="40"/>
+      <c r="BJ68" s="40"/>
+      <c r="BK68" s="40"/>
+      <c r="BL68" s="40"/>
+      <c r="BM68" s="40"/>
+      <c r="BN68" s="40"/>
+      <c r="BO68" s="40"/>
+      <c r="BP68" s="40"/>
+      <c r="BQ68" s="40"/>
+      <c r="BR68" s="40"/>
+      <c r="BS68" s="40"/>
+      <c r="BT68" s="40"/>
+      <c r="BU68" s="40"/>
+      <c r="BV68" s="40"/>
+      <c r="BW68" s="40"/>
+      <c r="BX68" s="40"/>
+      <c r="BY68" s="40"/>
+      <c r="BZ68" s="40"/>
+      <c r="CA68" s="40"/>
+      <c r="CB68" s="40"/>
+      <c r="CC68" s="40"/>
+      <c r="CD68" s="41"/>
+    </row>
+    <row r="69" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I69" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
+      <c r="Q69" s="42"/>
+      <c r="R69" s="42"/>
+      <c r="S69" s="42"/>
+      <c r="T69" s="42"/>
+      <c r="U69" s="42"/>
+      <c r="V69" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="W69" s="42"/>
+      <c r="X69" s="42"/>
+      <c r="Y69" s="42"/>
+      <c r="Z69" s="42"/>
+      <c r="AA69" s="42"/>
+      <c r="AB69" s="42"/>
+      <c r="AC69" s="42"/>
+      <c r="AD69" s="42"/>
+      <c r="AE69" s="42"/>
+      <c r="AF69" s="42"/>
+      <c r="AG69" s="42"/>
+      <c r="AH69" s="42"/>
+      <c r="AI69" s="42"/>
+      <c r="AJ69" s="42"/>
+      <c r="AK69" s="42"/>
+      <c r="AL69" s="42"/>
+      <c r="AM69" s="42"/>
+      <c r="AN69" s="42"/>
+      <c r="AO69" s="42"/>
+      <c r="AP69" s="42"/>
+      <c r="AQ69" s="42"/>
+      <c r="AR69" s="42"/>
+      <c r="AS69" s="42"/>
+      <c r="AT69" s="42"/>
+      <c r="AU69" s="42"/>
+      <c r="AV69" s="42"/>
+      <c r="AW69" s="42"/>
+      <c r="AX69" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY69" s="42"/>
+      <c r="AZ69" s="42"/>
+      <c r="BA69" s="42"/>
+      <c r="BB69" s="42"/>
+      <c r="BC69" s="42"/>
+      <c r="BD69" s="42"/>
+      <c r="BE69" s="42"/>
+      <c r="BF69" s="42"/>
+      <c r="BG69" s="42"/>
+      <c r="BH69" s="42"/>
+      <c r="BI69" s="42"/>
+      <c r="BJ69" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="BK69" s="42"/>
+      <c r="BL69" s="42"/>
+      <c r="BM69" s="42"/>
+      <c r="BN69" s="42"/>
+      <c r="BO69" s="42"/>
+      <c r="BP69" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="BQ69" s="42"/>
+      <c r="BR69" s="42"/>
+      <c r="BS69" s="42"/>
+      <c r="BT69" s="42"/>
+      <c r="BU69" s="42"/>
+      <c r="BV69" s="42"/>
+      <c r="BW69" s="42"/>
+      <c r="BX69" s="42"/>
+      <c r="BY69" s="42"/>
+      <c r="BZ69" s="42"/>
+      <c r="CA69" s="42"/>
+      <c r="CB69" s="42"/>
+      <c r="CC69" s="42"/>
+      <c r="CD69" s="42"/>
+    </row>
+    <row r="70" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I70" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="J70" s="48"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="48"/>
+      <c r="O70" s="48"/>
+      <c r="P70" s="48"/>
+      <c r="Q70" s="48"/>
+      <c r="R70" s="48"/>
+      <c r="S70" s="48"/>
+      <c r="T70" s="48"/>
+      <c r="U70" s="48"/>
+      <c r="V70" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="W70" s="48"/>
+      <c r="X70" s="48"/>
+      <c r="Y70" s="48"/>
+      <c r="Z70" s="48"/>
+      <c r="AA70" s="48"/>
+      <c r="AB70" s="48"/>
+      <c r="AC70" s="48"/>
+      <c r="AD70" s="48"/>
+      <c r="AE70" s="48"/>
+      <c r="AF70" s="48"/>
+      <c r="AG70" s="48"/>
+      <c r="AH70" s="48"/>
+      <c r="AI70" s="48"/>
+      <c r="AJ70" s="48"/>
+      <c r="AK70" s="48"/>
+      <c r="AL70" s="48"/>
+      <c r="AM70" s="48"/>
+      <c r="AN70" s="48"/>
+      <c r="AO70" s="48"/>
+      <c r="AP70" s="48"/>
+      <c r="AQ70" s="48"/>
+      <c r="AR70" s="48"/>
+      <c r="AS70" s="48"/>
+      <c r="AT70" s="48"/>
+      <c r="AU70" s="48"/>
+      <c r="AV70" s="48"/>
+      <c r="AW70" s="48"/>
+      <c r="AX70" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY70" s="48"/>
+      <c r="AZ70" s="48"/>
+      <c r="BA70" s="48"/>
+      <c r="BB70" s="48"/>
+      <c r="BC70" s="48"/>
+      <c r="BD70" s="48"/>
+      <c r="BE70" s="48"/>
+      <c r="BF70" s="48"/>
+      <c r="BG70" s="48"/>
+      <c r="BH70" s="48"/>
+      <c r="BI70" s="48"/>
+      <c r="BJ70" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK70" s="48"/>
+      <c r="BL70" s="48"/>
+      <c r="BM70" s="48"/>
+      <c r="BN70" s="48"/>
+      <c r="BO70" s="48"/>
+      <c r="BP70" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ70" s="48"/>
+      <c r="BR70" s="48"/>
+      <c r="BS70" s="48"/>
+      <c r="BT70" s="48"/>
+      <c r="BU70" s="48"/>
+      <c r="BV70" s="48"/>
+      <c r="BW70" s="48"/>
+      <c r="BX70" s="48"/>
+      <c r="BY70" s="48"/>
+      <c r="BZ70" s="48"/>
+      <c r="CA70" s="48"/>
+      <c r="CB70" s="48"/>
+      <c r="CC70" s="48"/>
+      <c r="CD70" s="48"/>
+    </row>
+    <row r="71" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="44"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="44"/>
+      <c r="R71" s="44"/>
+      <c r="S71" s="44"/>
+      <c r="T71" s="44"/>
+      <c r="U71" s="44"/>
+      <c r="V71" s="44"/>
+      <c r="W71" s="44"/>
+      <c r="X71" s="44"/>
+      <c r="Y71" s="44"/>
+      <c r="Z71" s="44"/>
+      <c r="AA71" s="44"/>
+      <c r="AB71" s="44"/>
+      <c r="AC71" s="44"/>
+      <c r="AD71" s="44"/>
+      <c r="AE71" s="44"/>
+      <c r="AF71" s="44"/>
+      <c r="AG71" s="44"/>
+      <c r="AH71" s="44"/>
+      <c r="AI71" s="44"/>
+      <c r="AJ71" s="44"/>
+      <c r="AK71" s="44"/>
+      <c r="AL71" s="44"/>
+      <c r="AM71" s="44"/>
+      <c r="AN71" s="44"/>
+      <c r="AO71" s="44"/>
+      <c r="AP71" s="44"/>
+      <c r="AQ71" s="44"/>
+      <c r="AR71" s="44"/>
+      <c r="AS71" s="44"/>
+      <c r="AT71" s="44"/>
+      <c r="AU71" s="44"/>
+      <c r="AV71" s="44"/>
+      <c r="AW71" s="44"/>
+      <c r="AX71" s="44"/>
+      <c r="AY71" s="44"/>
+      <c r="AZ71" s="44"/>
+      <c r="BA71" s="44"/>
+      <c r="BB71" s="44"/>
+      <c r="BC71" s="44"/>
+      <c r="BD71" s="44"/>
+      <c r="BE71" s="44"/>
+      <c r="BF71" s="44"/>
+      <c r="BG71" s="44"/>
+      <c r="BH71" s="44"/>
+      <c r="BI71" s="44"/>
+      <c r="BJ71" s="44"/>
+      <c r="BK71" s="44"/>
+      <c r="BL71" s="44"/>
+      <c r="BM71" s="44"/>
+      <c r="BN71" s="44"/>
+      <c r="BO71" s="44"/>
+      <c r="BP71" s="44"/>
+      <c r="BQ71" s="44"/>
+      <c r="BR71" s="44"/>
+      <c r="BS71" s="44"/>
+      <c r="BT71" s="44"/>
+      <c r="BU71" s="44"/>
+      <c r="BV71" s="44"/>
+      <c r="BW71" s="44"/>
+      <c r="BX71" s="44"/>
+      <c r="BY71" s="44"/>
+      <c r="BZ71" s="44"/>
+      <c r="CA71" s="44"/>
+      <c r="CB71" s="44"/>
+      <c r="CC71" s="44"/>
+      <c r="CD71" s="44"/>
+    </row>
+    <row r="72" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="44"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="44"/>
+      <c r="R72" s="44"/>
+      <c r="S72" s="44"/>
+      <c r="T72" s="44"/>
+      <c r="U72" s="44"/>
+      <c r="V72" s="44"/>
+      <c r="W72" s="44"/>
+      <c r="X72" s="44"/>
+      <c r="Y72" s="44"/>
+      <c r="Z72" s="44"/>
+      <c r="AA72" s="44"/>
+      <c r="AB72" s="44"/>
+      <c r="AC72" s="44"/>
+      <c r="AD72" s="44"/>
+      <c r="AE72" s="44"/>
+      <c r="AF72" s="44"/>
+      <c r="AG72" s="44"/>
+      <c r="AH72" s="44"/>
+      <c r="AI72" s="44"/>
+      <c r="AJ72" s="44"/>
+      <c r="AK72" s="44"/>
+      <c r="AL72" s="44"/>
+      <c r="AM72" s="44"/>
+      <c r="AN72" s="44"/>
+      <c r="AO72" s="44"/>
+      <c r="AP72" s="44"/>
+      <c r="AQ72" s="44"/>
+      <c r="AR72" s="44"/>
+      <c r="AS72" s="44"/>
+      <c r="AT72" s="44"/>
+      <c r="AU72" s="44"/>
+      <c r="AV72" s="44"/>
+      <c r="AW72" s="44"/>
+      <c r="AX72" s="44"/>
+      <c r="AY72" s="44"/>
+      <c r="AZ72" s="44"/>
+      <c r="BA72" s="44"/>
+      <c r="BB72" s="44"/>
+      <c r="BC72" s="44"/>
+      <c r="BD72" s="44"/>
+      <c r="BE72" s="44"/>
+      <c r="BF72" s="44"/>
+      <c r="BG72" s="44"/>
+      <c r="BH72" s="44"/>
+      <c r="BI72" s="44"/>
+      <c r="BJ72" s="44"/>
+      <c r="BK72" s="44"/>
+      <c r="BL72" s="44"/>
+      <c r="BM72" s="44"/>
+      <c r="BN72" s="44"/>
+      <c r="BO72" s="44"/>
+      <c r="BP72" s="44"/>
+      <c r="BQ72" s="44"/>
+      <c r="BR72" s="44"/>
+      <c r="BS72" s="44"/>
+      <c r="BT72" s="44"/>
+      <c r="BU72" s="44"/>
+      <c r="BV72" s="44"/>
+      <c r="BW72" s="44"/>
+      <c r="BX72" s="44"/>
+      <c r="BY72" s="44"/>
+      <c r="BZ72" s="44"/>
+      <c r="CA72" s="44"/>
+      <c r="CB72" s="44"/>
+      <c r="CC72" s="44"/>
+      <c r="CD72" s="44"/>
+    </row>
+    <row r="73" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I73" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="44"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
+      <c r="O73" s="44"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="44"/>
+      <c r="R73" s="44"/>
+      <c r="S73" s="44"/>
+      <c r="T73" s="44"/>
+      <c r="U73" s="44"/>
+      <c r="V73" s="50"/>
+      <c r="W73" s="44"/>
+      <c r="X73" s="44"/>
+      <c r="Y73" s="44"/>
+      <c r="Z73" s="44"/>
+      <c r="AA73" s="44"/>
+      <c r="AB73" s="44"/>
+      <c r="AC73" s="44"/>
+      <c r="AD73" s="44"/>
+      <c r="AE73" s="44"/>
+      <c r="AF73" s="44"/>
+      <c r="AG73" s="44"/>
+      <c r="AH73" s="44"/>
+      <c r="AI73" s="44"/>
+      <c r="AJ73" s="44"/>
+      <c r="AK73" s="44"/>
+      <c r="AL73" s="44"/>
+      <c r="AM73" s="44"/>
+      <c r="AN73" s="44"/>
+      <c r="AO73" s="44"/>
+      <c r="AP73" s="44"/>
+      <c r="AQ73" s="44"/>
+      <c r="AR73" s="44"/>
+      <c r="AS73" s="44"/>
+      <c r="AT73" s="44"/>
+      <c r="AU73" s="44"/>
+      <c r="AV73" s="44"/>
+      <c r="AW73" s="44"/>
+      <c r="AX73" s="44"/>
+      <c r="AY73" s="44"/>
+      <c r="AZ73" s="44"/>
+      <c r="BA73" s="44"/>
+      <c r="BB73" s="44"/>
+      <c r="BC73" s="44"/>
+      <c r="BD73" s="44"/>
+      <c r="BE73" s="44"/>
+      <c r="BF73" s="44"/>
+      <c r="BG73" s="44"/>
+      <c r="BH73" s="44"/>
+      <c r="BI73" s="44"/>
+      <c r="BJ73" s="44"/>
+      <c r="BK73" s="44"/>
+      <c r="BL73" s="44"/>
+      <c r="BM73" s="44"/>
+      <c r="BN73" s="44"/>
+      <c r="BO73" s="44"/>
+      <c r="BP73" s="44"/>
+      <c r="BQ73" s="44"/>
+      <c r="BR73" s="44"/>
+      <c r="BS73" s="44"/>
+      <c r="BT73" s="44"/>
+      <c r="BU73" s="44"/>
+      <c r="BV73" s="44"/>
+      <c r="BW73" s="44"/>
+      <c r="BX73" s="44"/>
+      <c r="BY73" s="44"/>
+      <c r="BZ73" s="44"/>
+      <c r="CA73" s="44"/>
+      <c r="CB73" s="44"/>
+      <c r="CC73" s="44"/>
+      <c r="CD73" s="44"/>
+    </row>
+    <row r="74" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="44"/>
+      <c r="P74" s="44"/>
+      <c r="Q74" s="44"/>
+      <c r="R74" s="44"/>
+      <c r="S74" s="44"/>
+      <c r="T74" s="44"/>
+      <c r="U74" s="44"/>
+      <c r="V74" s="44"/>
+      <c r="W74" s="44"/>
+      <c r="X74" s="44"/>
+      <c r="Y74" s="44"/>
+      <c r="Z74" s="44"/>
+      <c r="AA74" s="44"/>
+      <c r="AB74" s="44"/>
+      <c r="AC74" s="44"/>
+      <c r="AD74" s="44"/>
+      <c r="AE74" s="44"/>
+      <c r="AF74" s="44"/>
+      <c r="AG74" s="44"/>
+      <c r="AH74" s="44"/>
+      <c r="AI74" s="44"/>
+      <c r="AJ74" s="44"/>
+      <c r="AK74" s="44"/>
+      <c r="AL74" s="44"/>
+      <c r="AM74" s="44"/>
+      <c r="AN74" s="44"/>
+      <c r="AO74" s="44"/>
+      <c r="AP74" s="44"/>
+      <c r="AQ74" s="44"/>
+      <c r="AR74" s="44"/>
+      <c r="AS74" s="44"/>
+      <c r="AT74" s="44"/>
+      <c r="AU74" s="44"/>
+      <c r="AV74" s="44"/>
+      <c r="AW74" s="44"/>
+      <c r="AX74" s="44"/>
+      <c r="AY74" s="44"/>
+      <c r="AZ74" s="44"/>
+      <c r="BA74" s="44"/>
+      <c r="BB74" s="44"/>
+      <c r="BC74" s="44"/>
+      <c r="BD74" s="44"/>
+      <c r="BE74" s="44"/>
+      <c r="BF74" s="44"/>
+      <c r="BG74" s="44"/>
+      <c r="BH74" s="44"/>
+      <c r="BI74" s="44"/>
+      <c r="BJ74" s="44"/>
+      <c r="BK74" s="44"/>
+      <c r="BL74" s="44"/>
+      <c r="BM74" s="44"/>
+      <c r="BN74" s="44"/>
+      <c r="BO74" s="44"/>
+      <c r="BP74" s="44"/>
+      <c r="BQ74" s="44"/>
+      <c r="BR74" s="44"/>
+      <c r="BS74" s="44"/>
+      <c r="BT74" s="44"/>
+      <c r="BU74" s="44"/>
+      <c r="BV74" s="44"/>
+      <c r="BW74" s="44"/>
+      <c r="BX74" s="44"/>
+      <c r="BY74" s="44"/>
+      <c r="BZ74" s="44"/>
+      <c r="CA74" s="44"/>
+      <c r="CB74" s="44"/>
+      <c r="CC74" s="44"/>
+      <c r="CD74" s="44"/>
+    </row>
+    <row r="75" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I75" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J75" s="44"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="44"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="44"/>
+      <c r="O75" s="44"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="44"/>
+      <c r="R75" s="44"/>
+      <c r="S75" s="44"/>
+      <c r="T75" s="44"/>
+      <c r="U75" s="44"/>
+      <c r="V75" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="W75" s="52"/>
+      <c r="X75" s="52"/>
+      <c r="Y75" s="52"/>
+      <c r="Z75" s="52"/>
+      <c r="AA75" s="52"/>
+      <c r="AB75" s="52"/>
+      <c r="AC75" s="52"/>
+      <c r="AD75" s="52"/>
+      <c r="AE75" s="52"/>
+      <c r="AF75" s="52"/>
+      <c r="AG75" s="52"/>
+      <c r="AH75" s="52"/>
+      <c r="AI75" s="52"/>
+      <c r="AJ75" s="52"/>
+      <c r="AK75" s="52"/>
+      <c r="AL75" s="52"/>
+      <c r="AM75" s="52"/>
+      <c r="AN75" s="52"/>
+      <c r="AO75" s="52"/>
+      <c r="AP75" s="52"/>
+      <c r="AQ75" s="52"/>
+      <c r="AR75" s="52"/>
+      <c r="AS75" s="52"/>
+      <c r="AT75" s="52"/>
+      <c r="AU75" s="52"/>
+      <c r="AV75" s="52"/>
+      <c r="AW75" s="52"/>
+      <c r="AX75" s="52"/>
+      <c r="AY75" s="52"/>
+      <c r="AZ75" s="52"/>
+      <c r="BA75" s="52"/>
+      <c r="BB75" s="52"/>
+      <c r="BC75" s="52"/>
+      <c r="BD75" s="52"/>
+      <c r="BE75" s="52"/>
+      <c r="BF75" s="52"/>
+      <c r="BG75" s="52"/>
+      <c r="BH75" s="52"/>
+      <c r="BI75" s="52"/>
+      <c r="BJ75" s="52"/>
+      <c r="BK75" s="52"/>
+      <c r="BL75" s="52"/>
+      <c r="BM75" s="52"/>
+      <c r="BN75" s="52"/>
+      <c r="BO75" s="52"/>
+      <c r="BP75" s="52"/>
+      <c r="BQ75" s="52"/>
+      <c r="BR75" s="52"/>
+      <c r="BS75" s="52"/>
+      <c r="BT75" s="52"/>
+      <c r="BU75" s="52"/>
+      <c r="BV75" s="52"/>
+      <c r="BW75" s="52"/>
+      <c r="BX75" s="52"/>
+      <c r="BY75" s="52"/>
+      <c r="BZ75" s="52"/>
+      <c r="CA75" s="52"/>
+      <c r="CB75" s="52"/>
+      <c r="CC75" s="52"/>
+      <c r="CD75" s="52"/>
+    </row>
+    <row r="76" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="44"/>
+      <c r="L76" s="44"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="44"/>
+      <c r="O76" s="44"/>
+      <c r="P76" s="44"/>
+      <c r="Q76" s="44"/>
+      <c r="R76" s="44"/>
+      <c r="S76" s="44"/>
+      <c r="T76" s="44"/>
+      <c r="U76" s="44"/>
+      <c r="V76" s="52"/>
+      <c r="W76" s="52"/>
+      <c r="X76" s="52"/>
+      <c r="Y76" s="52"/>
+      <c r="Z76" s="52"/>
+      <c r="AA76" s="52"/>
+      <c r="AB76" s="52"/>
+      <c r="AC76" s="52"/>
+      <c r="AD76" s="52"/>
+      <c r="AE76" s="52"/>
+      <c r="AF76" s="52"/>
+      <c r="AG76" s="52"/>
+      <c r="AH76" s="52"/>
+      <c r="AI76" s="52"/>
+      <c r="AJ76" s="52"/>
+      <c r="AK76" s="52"/>
+      <c r="AL76" s="52"/>
+      <c r="AM76" s="52"/>
+      <c r="AN76" s="52"/>
+      <c r="AO76" s="52"/>
+      <c r="AP76" s="52"/>
+      <c r="AQ76" s="52"/>
+      <c r="AR76" s="52"/>
+      <c r="AS76" s="52"/>
+      <c r="AT76" s="52"/>
+      <c r="AU76" s="52"/>
+      <c r="AV76" s="52"/>
+      <c r="AW76" s="52"/>
+      <c r="AX76" s="52"/>
+      <c r="AY76" s="52"/>
+      <c r="AZ76" s="52"/>
+      <c r="BA76" s="52"/>
+      <c r="BB76" s="52"/>
+      <c r="BC76" s="52"/>
+      <c r="BD76" s="52"/>
+      <c r="BE76" s="52"/>
+      <c r="BF76" s="52"/>
+      <c r="BG76" s="52"/>
+      <c r="BH76" s="52"/>
+      <c r="BI76" s="52"/>
+      <c r="BJ76" s="52"/>
+      <c r="BK76" s="52"/>
+      <c r="BL76" s="52"/>
+      <c r="BM76" s="52"/>
+      <c r="BN76" s="52"/>
+      <c r="BO76" s="52"/>
+      <c r="BP76" s="52"/>
+      <c r="BQ76" s="52"/>
+      <c r="BR76" s="52"/>
+      <c r="BS76" s="52"/>
+      <c r="BT76" s="52"/>
+      <c r="BU76" s="52"/>
+      <c r="BV76" s="52"/>
+      <c r="BW76" s="52"/>
+      <c r="BX76" s="52"/>
+      <c r="BY76" s="52"/>
+      <c r="BZ76" s="52"/>
+      <c r="CA76" s="52"/>
+      <c r="CB76" s="52"/>
+      <c r="CC76" s="52"/>
+      <c r="CD76" s="52"/>
+    </row>
+    <row r="77" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
+      <c r="O77" s="44"/>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="44"/>
+      <c r="R77" s="44"/>
+      <c r="S77" s="44"/>
+      <c r="T77" s="44"/>
+      <c r="U77" s="44"/>
+      <c r="V77" s="52"/>
+      <c r="W77" s="52"/>
+      <c r="X77" s="52"/>
+      <c r="Y77" s="52"/>
+      <c r="Z77" s="52"/>
+      <c r="AA77" s="52"/>
+      <c r="AB77" s="52"/>
+      <c r="AC77" s="52"/>
+      <c r="AD77" s="52"/>
+      <c r="AE77" s="52"/>
+      <c r="AF77" s="52"/>
+      <c r="AG77" s="52"/>
+      <c r="AH77" s="52"/>
+      <c r="AI77" s="52"/>
+      <c r="AJ77" s="52"/>
+      <c r="AK77" s="52"/>
+      <c r="AL77" s="52"/>
+      <c r="AM77" s="52"/>
+      <c r="AN77" s="52"/>
+      <c r="AO77" s="52"/>
+      <c r="AP77" s="52"/>
+      <c r="AQ77" s="52"/>
+      <c r="AR77" s="52"/>
+      <c r="AS77" s="52"/>
+      <c r="AT77" s="52"/>
+      <c r="AU77" s="52"/>
+      <c r="AV77" s="52"/>
+      <c r="AW77" s="52"/>
+      <c r="AX77" s="52"/>
+      <c r="AY77" s="52"/>
+      <c r="AZ77" s="52"/>
+      <c r="BA77" s="52"/>
+      <c r="BB77" s="52"/>
+      <c r="BC77" s="52"/>
+      <c r="BD77" s="52"/>
+      <c r="BE77" s="52"/>
+      <c r="BF77" s="52"/>
+      <c r="BG77" s="52"/>
+      <c r="BH77" s="52"/>
+      <c r="BI77" s="52"/>
+      <c r="BJ77" s="52"/>
+      <c r="BK77" s="52"/>
+      <c r="BL77" s="52"/>
+      <c r="BM77" s="52"/>
+      <c r="BN77" s="52"/>
+      <c r="BO77" s="52"/>
+      <c r="BP77" s="52"/>
+      <c r="BQ77" s="52"/>
+      <c r="BR77" s="52"/>
+      <c r="BS77" s="52"/>
+      <c r="BT77" s="52"/>
+      <c r="BU77" s="52"/>
+      <c r="BV77" s="52"/>
+      <c r="BW77" s="52"/>
+      <c r="BX77" s="52"/>
+      <c r="BY77" s="52"/>
+      <c r="BZ77" s="52"/>
+      <c r="CA77" s="52"/>
+      <c r="CB77" s="52"/>
+      <c r="CC77" s="52"/>
+      <c r="CD77" s="52"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="101">
+    <mergeCell ref="I73:U74"/>
+    <mergeCell ref="V73:CD74"/>
+    <mergeCell ref="I75:U77"/>
+    <mergeCell ref="V75:CD77"/>
+    <mergeCell ref="I70:U72"/>
+    <mergeCell ref="V70:AW72"/>
+    <mergeCell ref="AX70:BI72"/>
+    <mergeCell ref="BJ70:BO72"/>
+    <mergeCell ref="BP70:CD72"/>
+    <mergeCell ref="I69:U69"/>
+    <mergeCell ref="V69:AW69"/>
+    <mergeCell ref="AX69:BI69"/>
+    <mergeCell ref="BJ69:BO69"/>
+    <mergeCell ref="BP69:CD69"/>
+    <mergeCell ref="I59:U60"/>
+    <mergeCell ref="V59:CD60"/>
+    <mergeCell ref="I61:U63"/>
+    <mergeCell ref="V61:CD63"/>
+    <mergeCell ref="I67:CD68"/>
+    <mergeCell ref="I56:U58"/>
+    <mergeCell ref="V56:AW58"/>
+    <mergeCell ref="AX56:BI58"/>
+    <mergeCell ref="BJ56:BO58"/>
+    <mergeCell ref="BP56:CD58"/>
+    <mergeCell ref="I55:U55"/>
+    <mergeCell ref="V55:AW55"/>
+    <mergeCell ref="AX55:BI55"/>
+    <mergeCell ref="BJ55:BO55"/>
+    <mergeCell ref="BP55:CD55"/>
+    <mergeCell ref="I45:U46"/>
+    <mergeCell ref="V45:CD46"/>
+    <mergeCell ref="I47:U49"/>
+    <mergeCell ref="V47:CD49"/>
+    <mergeCell ref="I53:CD54"/>
+    <mergeCell ref="I42:U44"/>
+    <mergeCell ref="V42:AW44"/>
+    <mergeCell ref="AX42:BI44"/>
+    <mergeCell ref="BJ42:BO44"/>
+    <mergeCell ref="BP42:CD44"/>
+    <mergeCell ref="I41:U41"/>
+    <mergeCell ref="V41:AW41"/>
+    <mergeCell ref="AX41:BI41"/>
+    <mergeCell ref="BJ41:BO41"/>
+    <mergeCell ref="BP41:CD41"/>
+    <mergeCell ref="I31:U32"/>
+    <mergeCell ref="V31:CD32"/>
+    <mergeCell ref="I33:U35"/>
+    <mergeCell ref="V33:CD35"/>
+    <mergeCell ref="I39:CD40"/>
+    <mergeCell ref="I28:U30"/>
+    <mergeCell ref="V28:AW30"/>
+    <mergeCell ref="AX28:BI30"/>
+    <mergeCell ref="BJ28:BO30"/>
+    <mergeCell ref="BP28:CD30"/>
+    <mergeCell ref="I27:U27"/>
+    <mergeCell ref="V27:AW27"/>
+    <mergeCell ref="AX27:BI27"/>
+    <mergeCell ref="BJ27:BO27"/>
+    <mergeCell ref="BP27:CD27"/>
+    <mergeCell ref="I17:U18"/>
+    <mergeCell ref="V17:CD18"/>
+    <mergeCell ref="I19:U21"/>
+    <mergeCell ref="V19:CD21"/>
+    <mergeCell ref="I25:CD26"/>
+    <mergeCell ref="I14:U16"/>
+    <mergeCell ref="V14:AW16"/>
+    <mergeCell ref="AX14:BI16"/>
+    <mergeCell ref="BJ14:BO16"/>
+    <mergeCell ref="BP14:CD16"/>
     <mergeCell ref="A12:G13"/>
     <mergeCell ref="A1:XFD3"/>
     <mergeCell ref="A4:XFD5"/>
     <mergeCell ref="A6:G7"/>
     <mergeCell ref="A8:G9"/>
     <mergeCell ref="A10:G11"/>
+    <mergeCell ref="I7:CD9"/>
+    <mergeCell ref="I11:CD12"/>
+    <mergeCell ref="I13:U13"/>
+    <mergeCell ref="V13:AW13"/>
+    <mergeCell ref="AX13:BI13"/>
+    <mergeCell ref="BJ13:BO13"/>
+    <mergeCell ref="BP13:CD13"/>
     <mergeCell ref="A36:G37"/>
     <mergeCell ref="A14:G15"/>
     <mergeCell ref="A16:G17"/>
@@ -3994,958 +10264,11 @@
     <mergeCell ref="A48:G49"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCAA047-5D23-4546-A9DC-CF28AC8EC082}">
-  <dimension ref="A1:G51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="2.09765625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:7" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="20" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="9"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="9"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A12:G13"/>
-    <mergeCell ref="A1:XFD3"/>
-    <mergeCell ref="A4:XFD5"/>
-    <mergeCell ref="A6:G7"/>
-    <mergeCell ref="A8:G9"/>
-    <mergeCell ref="A10:G11"/>
-    <mergeCell ref="A36:G37"/>
-    <mergeCell ref="A14:G15"/>
-    <mergeCell ref="A16:G17"/>
-    <mergeCell ref="A18:G19"/>
-    <mergeCell ref="A20:G21"/>
-    <mergeCell ref="A22:G23"/>
-    <mergeCell ref="A24:G25"/>
-    <mergeCell ref="A26:G27"/>
-    <mergeCell ref="A28:G29"/>
-    <mergeCell ref="A30:G31"/>
-    <mergeCell ref="A32:G33"/>
-    <mergeCell ref="A34:G35"/>
-    <mergeCell ref="A50:G51"/>
-    <mergeCell ref="A38:G39"/>
-    <mergeCell ref="A40:G41"/>
-    <mergeCell ref="A42:G43"/>
-    <mergeCell ref="A44:G45"/>
-    <mergeCell ref="A46:G47"/>
-    <mergeCell ref="A48:G49"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25F16C1-A75F-4BAA-9297-99769E73E2A7}">
-  <dimension ref="A1:G51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="2.09765625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:7" s="16" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:7" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="20" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="9"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="9"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A12:G13"/>
-    <mergeCell ref="A1:XFD3"/>
-    <mergeCell ref="A4:XFD5"/>
-    <mergeCell ref="A6:G7"/>
-    <mergeCell ref="A8:G9"/>
-    <mergeCell ref="A10:G11"/>
-    <mergeCell ref="A36:G37"/>
-    <mergeCell ref="A14:G15"/>
-    <mergeCell ref="A16:G17"/>
-    <mergeCell ref="A18:G19"/>
-    <mergeCell ref="A20:G21"/>
-    <mergeCell ref="A22:G23"/>
-    <mergeCell ref="A24:G25"/>
-    <mergeCell ref="A26:G27"/>
-    <mergeCell ref="A28:G29"/>
-    <mergeCell ref="A30:G31"/>
-    <mergeCell ref="A32:G33"/>
-    <mergeCell ref="A34:G35"/>
-    <mergeCell ref="A50:G51"/>
-    <mergeCell ref="A38:G39"/>
-    <mergeCell ref="A40:G41"/>
-    <mergeCell ref="A42:G43"/>
-    <mergeCell ref="A44:G45"/>
-    <mergeCell ref="A46:G47"/>
-    <mergeCell ref="A48:G49"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A6:G7" location="トップページ!A1" display="トップページ" xr:uid="{D8C65FAB-C1EB-4BD4-BA6C-6C87EAD6BB12}"/>
+    <hyperlink ref="A8:G9" location="BGMリソース!A1" display="BGMリソース" xr:uid="{9FB23008-3D39-4D9C-BBE8-81B657732B93}"/>
+    <hyperlink ref="A10:G11" location="BGM詳細!A1" display="BGM詳細" xr:uid="{F3F5204F-517D-4549-926E-7FAFA235643D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
